--- a/src/attributions/attributions_saliency_traj_186.xlsx
+++ b/src/attributions/attributions_saliency_traj_186.xlsx
@@ -1573,571 +1573,571 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4765745997428894</v>
+        <v>0.04633080586791039</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06229354068636894</v>
+        <v>1.398853063583374</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3228686153888702</v>
+        <v>0.1109821572899818</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1102198511362076</v>
+        <v>0.1575957834720612</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06429851800203323</v>
+        <v>0.2564308047294617</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05218875408172607</v>
+        <v>0.9568383693695068</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05296913534402847</v>
+        <v>0.08252859115600586</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09885476529598236</v>
+        <v>0.3500640690326691</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08066130429506302</v>
+        <v>0.07315648347139359</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4575608968734741</v>
+        <v>0.2915394306182861</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0137459896504879</v>
+        <v>1.103485345840454</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3190748691558838</v>
+        <v>0.078619584441185</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07556740194559097</v>
+        <v>0.4576326012611389</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1158367618918419</v>
+        <v>0.1384726464748383</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03361120074987411</v>
+        <v>0.8585432767868042</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1145433858036995</v>
+        <v>0.1067861020565033</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06618147343397141</v>
+        <v>0.169792577624321</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1169322207570076</v>
+        <v>0.03863321989774704</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0122960414737463</v>
+        <v>0.09754790365695953</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1191391497850418</v>
+        <v>0.1591660231351852</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0372508317232132</v>
+        <v>0.06853651255369186</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02054681070148945</v>
+        <v>0.01677083782851696</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1120747029781342</v>
+        <v>0.04250691086053848</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01012867223471403</v>
+        <v>0.003396846354007721</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01979676447808743</v>
+        <v>0.02403359115123749</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.09363521635532379</v>
+        <v>0.05737371370196342</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03945503383874893</v>
+        <v>0.06083428114652634</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0150138046592474</v>
+        <v>0.1014819517731667</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.05127338320016861</v>
+        <v>0.1546392142772675</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.04405318200588226</v>
+        <v>0.06281271576881409</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.03418696671724319</v>
+        <v>0.05137146636843681</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06501879543066025</v>
+        <v>0.1809680908918381</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03081778064370155</v>
+        <v>0.08192146569490433</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0580129362642765</v>
+        <v>0.05886268615722656</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.05739909410476685</v>
+        <v>0.009941617958247662</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.06386828422546387</v>
+        <v>0.01149642933160067</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.08165015280246735</v>
+        <v>0.004101892933249474</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.05397947877645493</v>
+        <v>0.1284663826227188</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.03357715904712677</v>
+        <v>0.02752580307424068</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.07113377749919891</v>
+        <v>0.01438598334789276</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0484432578086853</v>
+        <v>0.1003113612532616</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.05718637630343437</v>
+        <v>0.2247029542922974</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.001410081284120679</v>
+        <v>0.0120712835341692</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.04355353862047195</v>
+        <v>0.005271376576274633</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.00398274464532733</v>
+        <v>0.1251956969499588</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1984859257936478</v>
+        <v>0.139881044626236</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.03131092712283134</v>
+        <v>0.7461894750595093</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1647043228149414</v>
+        <v>0.03424012660980225</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.02656813710927963</v>
+        <v>0.06396220624446869</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.03923426568508148</v>
+        <v>0.1282406449317932</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.04324852302670479</v>
+        <v>0.6292080879211426</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.1199442893266678</v>
+        <v>0.0963878259062767</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.08558697253465652</v>
+        <v>0.0001548189902678132</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.05100462213158607</v>
+        <v>0.1536636352539062</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.1290448755025864</v>
+        <v>0.07330451160669327</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.06835298985242844</v>
+        <v>0.3589407205581665</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.09786618500947952</v>
+        <v>0.1512521356344223</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.01586601696908474</v>
+        <v>0.1803587824106216</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.04696006327867508</v>
+        <v>0.1099517196416855</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.02963775768876076</v>
+        <v>0.2341777682304382</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.04019534215331078</v>
+        <v>0.1650353074073792</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.1297509670257568</v>
+        <v>0.01843613758683205</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.01446414180099964</v>
+        <v>0.1420170664787292</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.06154275685548782</v>
+        <v>0.02114243246614933</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.03759023174643517</v>
+        <v>0.06988542526960373</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.06588651239871979</v>
+        <v>0.03624380752444267</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.01236028131097555</v>
+        <v>0.08422853797674179</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.1371992975473404</v>
+        <v>0.07006809860467911</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.05046848207712173</v>
+        <v>0.02764030173420906</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.04076064378023148</v>
+        <v>0.009051050990819931</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.04006311297416687</v>
+        <v>0.03248778358101845</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.009576638229191303</v>
+        <v>0.02355365082621574</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.169504851102829</v>
+        <v>0.1090420335531235</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.009687768295407295</v>
+        <v>0.3342616558074951</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.07259801030158997</v>
+        <v>0.1310519576072693</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.0926983579993248</v>
+        <v>0.01721895299851894</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.03948671743273735</v>
+        <v>0.1826077103614807</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.07460451126098633</v>
+        <v>0.2542281448841095</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.03403840586543083</v>
+        <v>0.1215759217739105</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.06967046856880188</v>
+        <v>0.1579393595457077</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.006443383637815714</v>
+        <v>0.009530495852231979</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.09580458700656891</v>
+        <v>0.012780936434865</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.03338517621159554</v>
+        <v>0.2649079859256744</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.0519208088517189</v>
+        <v>0.0562547855079174</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.01949425041675568</v>
+        <v>0.03512372076511383</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.000789708225056529</v>
+        <v>0.01265935227274895</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.01979289017617702</v>
+        <v>0.1555144488811493</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.009507928974926472</v>
+        <v>0.004735395312309265</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.03118517436087132</v>
+        <v>0.03839389234781265</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.005417716689407825</v>
+        <v>0.002034023404121399</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.01934192329645157</v>
+        <v>0.1447746902704239</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.02554924041032791</v>
+        <v>0.01171972882002592</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.02345152385532856</v>
+        <v>0.0196115355938673</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.0001137368381023407</v>
+        <v>0.006694244220852852</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.1261105984449387</v>
+        <v>0.02587321773171425</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.008423321880400181</v>
+        <v>0.03160351887345314</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.1219995468854904</v>
+        <v>0.04262559860944748</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.07854233682155609</v>
+        <v>0.1112372875213623</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1010966524481773</v>
+        <v>0.09578883647918701</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.08757556974887848</v>
+        <v>0.01226914208382368</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.008835858665406704</v>
+        <v>0.2253971099853516</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.05153508111834526</v>
+        <v>0.06582463532686234</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.01149104628711939</v>
+        <v>0.07489421963691711</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.05542460456490517</v>
+        <v>0.01441285386681557</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.01063188537955284</v>
+        <v>0.1697355806827545</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.01939890161156654</v>
+        <v>0.0278853140771389</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.02029999159276485</v>
+        <v>0.0427548959851265</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.005745941773056984</v>
+        <v>0.007063203491270542</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.04933079332113266</v>
+        <v>0.08728198707103729</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.1710359752178192</v>
+        <v>0.06252773106098175</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.0427570715546608</v>
+        <v>0.1500358581542969</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.01275035832077265</v>
+        <v>0.1309079676866531</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.0859021469950676</v>
+        <v>0.212610125541687</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.0290693249553442</v>
+        <v>0.1466327905654907</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.004557577893137932</v>
+        <v>0.01109365373849869</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.1026630848646164</v>
+        <v>0.3219499886035919</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.1075085178017616</v>
+        <v>0.1683781743049622</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.004931604489684105</v>
+        <v>0.01398432347923517</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.06228633970022202</v>
+        <v>0.05035220459103584</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.03228213638067245</v>
+        <v>0.1292447596788406</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.004198727663606405</v>
+        <v>0.05682580545544624</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.03871195763349533</v>
+        <v>0.06671135872602463</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.02345601283013821</v>
+        <v>0.04201072454452515</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.06882066279649734</v>
+        <v>0.06978278607130051</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.02424843050539494</v>
+        <v>0.1021595969796181</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.04050495103001595</v>
+        <v>0.03496072441339493</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.008528133854269981</v>
+        <v>0.03365123271942139</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0005384720861911774</v>
+        <v>0.151173010468483</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.00357219111174345</v>
+        <v>0.03952560573816299</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.004132040310651064</v>
+        <v>0.0394047275185585</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.06524418294429779</v>
+        <v>0.06994099915027618</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.00909732561558485</v>
+        <v>0.03660418093204498</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.005198944360017776</v>
+        <v>0.04193311184644699</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.06015343591570854</v>
+        <v>0.07971393316984177</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.04776327684521675</v>
+        <v>0.06062737107276917</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.142445296049118</v>
+        <v>0.00430121086537838</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.02480026707053185</v>
+        <v>0.249579057097435</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.065696120262146</v>
+        <v>0.02746265754103661</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.02474497631192207</v>
+        <v>0.08047179877758026</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.001440726686269045</v>
+        <v>0.01352311670780182</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.0392463430762291</v>
+        <v>0.1620532125234604</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.03091850131750107</v>
+        <v>0.03141183033585548</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0412093885242939</v>
+        <v>0.09860029816627502</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.01799387112259865</v>
+        <v>0.02911192178726196</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.03951863944530487</v>
+        <v>0.06642324477434158</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.0451347716152668</v>
+        <v>0.1577625125646591</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.04877892136573792</v>
+        <v>0.0762496218085289</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.05584479868412018</v>
+        <v>0.03941654413938522</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.01950585283339024</v>
+        <v>0.01784498244524002</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.08122041076421738</v>
+        <v>0.1566862612962723</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.075428307056427</v>
+        <v>0.07597161084413528</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.03363989293575287</v>
+        <v>0.006022429093718529</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0514090470969677</v>
+        <v>0.09844908118247986</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.09350229799747467</v>
+        <v>0.03386234492063522</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.005858008749783039</v>
+        <v>0.2404150366783142</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.05599764734506607</v>
+        <v>0.01548738218843937</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.01103881932795048</v>
+        <v>0.01485441625118256</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.01696467772126198</v>
+        <v>0.002890393137931824</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.0002609308576211333</v>
+        <v>0.160024106502533</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.01442663464695215</v>
+        <v>0.006569409742951393</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02955480292439461</v>
+        <v>0.02785877510905266</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.01125399116426706</v>
+        <v>0.006970783695578575</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.06542164087295532</v>
+        <v>0.0532214343547821</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.09380756318569183</v>
+        <v>0.06381963193416595</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.03142433241009712</v>
+        <v>0.02866150811314583</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.06679137051105499</v>
+        <v>0.1937187612056732</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.05179207772016525</v>
+        <v>0.1326478570699692</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.08338732272386551</v>
+        <v>0.1781927943229675</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.04590453952550888</v>
+        <v>0.08148021250963211</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.08108372986316681</v>
+        <v>0.04552333056926727</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.04132835194468498</v>
+        <v>0.1512444317340851</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.04053476452827454</v>
+        <v>0.1118333041667938</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.1304645836353302</v>
+        <v>0.4739928841590881</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.03166337683796883</v>
+        <v>0.0244906023144722</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.08671221137046814</v>
+        <v>0.225468784570694</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.03556451573967934</v>
+        <v>0.007776199840009212</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.05311291292309761</v>
+        <v>0.2064915001392365</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.03195418417453766</v>
+        <v>0.1254486590623856</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.03873435780405998</v>
+        <v>0.06267836689949036</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.06324543058872223</v>
+        <v>0.05156383290886879</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.001185761764645576</v>
+        <v>0.1596779972314835</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.1255075335502625</v>
+        <v>0.1167466044425964</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.01723017729818821</v>
+        <v>0.032353475689888</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.083098404109478</v>
+        <v>0.03329040110111237</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.06092788279056549</v>
+        <v>0.4435235559940338</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.1186868101358414</v>
+        <v>0.1374753564596176</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.005879572592675686</v>
+        <v>0.008656424470245838</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.07346750795841217</v>
+        <v>0.09977608919143677</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.006251886952668428</v>
+        <v>0.005286445841193199</v>
       </c>
     </row>
     <row r="4">
@@ -2711,1140 +2711,1140 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01710736192762852</v>
+        <v>0.0002206075878348202</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001064440933987498</v>
+        <v>0.001458041719160974</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01375984866172075</v>
+        <v>0.0002225774951511994</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006275340914726257</v>
+        <v>0.0004422489437274635</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001959749963134527</v>
+        <v>0.0004269056371413171</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001349251251667738</v>
+        <v>0.000867034774273634</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001717026578262448</v>
+        <v>4.831291153095663e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005154650658369064</v>
+        <v>0.0002166553022107109</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003751031588762999</v>
+        <v>3.304089477751404e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01646597497165203</v>
+        <v>0.000216492626350373</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0008984755259007215</v>
+        <v>0.001349495491012931</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01419861614704132</v>
+        <v>8.484009595122188e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005405018106102943</v>
+        <v>0.0008404514519497752</v>
       </c>
       <c r="N5" t="n">
-        <v>0.008213020861148834</v>
+        <v>0.0004723800229839981</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001337799476459622</v>
+        <v>0.001012155786156654</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004443712066859007</v>
+        <v>0.0002581601729616523</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.004922846332192421</v>
+        <v>0.0001581347751198336</v>
       </c>
       <c r="R5" t="n">
-        <v>0.006473816931247711</v>
+        <v>0.0002033455675700679</v>
       </c>
       <c r="S5" t="n">
-        <v>6.330476026050746e-06</v>
+        <v>6.171814311528578e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.004960695747286081</v>
+        <v>0.0002702576166484505</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0001500523067079484</v>
+        <v>7.816031939000823e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0003816384705714881</v>
+        <v>0.0001551146560814232</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003348533762618899</v>
+        <v>0.0002893978962674737</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001640829257667065</v>
+        <v>0.0001065542746800929</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001117968698963523</v>
+        <v>9.821018466027454e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.004726989660412073</v>
+        <v>0.0001330595696344972</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001184735330753028</v>
+        <v>0.0001291725784540176</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.001577368704602122</v>
+        <v>0.0003278878284618258</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.000157030881382525</v>
+        <v>0.0002439262316329405</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.001440499909222126</v>
+        <v>0.0002957767865154892</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.001015425659716129</v>
+        <v>0.0002291274577146396</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0003876067348755896</v>
+        <v>0.0002438378578517586</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.003115205327048898</v>
+        <v>7.569566514575854e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.001327146776020527</v>
+        <v>0.0002364681859035045</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.004518169909715652</v>
+        <v>5.36377847311087e-05</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.002699572825804353</v>
+        <v>0.0001143729532486759</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.003487207926809788</v>
+        <v>2.540154673624784e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.003429734613746405</v>
+        <v>0.0003589345142245293</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.001330825733020902</v>
+        <v>5.468378367368132e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.002413415815681219</v>
+        <v>2.049280010396615e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.001460985746234655</v>
+        <v>0.000133461260702461</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.002612929791212082</v>
+        <v>8.913167403079569e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0001633713691262528</v>
+        <v>0.00012249342398718</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.404470549459802e-05</v>
+        <v>5.633374166791327e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0002443256962578744</v>
+        <v>2.612143180158455e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.007697758730500937</v>
+        <v>0.0001147305010817945</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.002299128798767924</v>
+        <v>0.001018478069454432</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.007224950939416885</v>
+        <v>0.0001706439506961033</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0004859460168518126</v>
+        <v>0.0002394622715655714</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.002128033898770809</v>
+        <v>2.981799298140686e-05</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.003986693918704987</v>
+        <v>2.431627945043147e-05</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.001715974300168455</v>
+        <v>0.0004457334289327264</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.003255845280364156</v>
+        <v>0.000254972284892574</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.003265304490923882</v>
+        <v>7.315464608836919e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.00406939210370183</v>
+        <v>1.30272310343571e-05</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0008060102700255811</v>
+        <v>0.0002670557587407529</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.004493343643844128</v>
+        <v>0.0002597788407001644</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.0004027759714517742</v>
+        <v>7.998474757187068e-06</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0003117402957286686</v>
+        <v>0.000556973391212523</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.002984799677506089</v>
+        <v>0.0004903983208350837</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.001446938491426408</v>
+        <v>0.0002477859379723668</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.00233920942991972</v>
+        <v>3.76140778826084e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.00195399671792984</v>
+        <v>0.0002347004774492234</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.001398602151311934</v>
+        <v>5.801412771688774e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.001003555837087333</v>
+        <v>0.0002367344277445227</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.002041078172624111</v>
+        <v>1.894588785944507e-05</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.001666120253503323</v>
+        <v>0.0001120676170103252</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.005525822751224041</v>
+        <v>0.0002425940911052749</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0003701342502608895</v>
+        <v>4.881267886958085e-05</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.001475710421800613</v>
+        <v>0.0001316507114097476</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.001419483684003353</v>
+        <v>4.256958709447645e-05</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0009078762959688902</v>
+        <v>7.010092667769641e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.006438000593334436</v>
+        <v>7.130661106202751e-05</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0003356905071996152</v>
+        <v>0.0005306008970364928</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.003677546512335539</v>
+        <v>9.115433203987777e-05</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.003909273538738489</v>
+        <v>0.0001367484801448882</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.00185194204095751</v>
+        <v>8.913383499020711e-05</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.001881250878795981</v>
+        <v>2.324293200217653e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0003610383137129247</v>
+        <v>0.0002380783844273537</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.002935469150543213</v>
+        <v>3.534960342221893e-06</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.000312162796035409</v>
+        <v>4.65931989310775e-05</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.003414453007280827</v>
+        <v>6.836241664132103e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.002717217430472374</v>
+        <v>0.0002391785237705335</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.002813321072608232</v>
+        <v>1.062775936588878e-06</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.001608919934369624</v>
+        <v>9.580911137163639e-05</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0005075788358226418</v>
+        <v>4.904851812170818e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0008907944429665804</v>
+        <v>0.0001606149307917804</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0003340993425808847</v>
+        <v>0.0001294365501962602</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.001566392718814313</v>
+        <v>3.750815812963992e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0002046406443696469</v>
+        <v>4.179047027719207e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0004195950459688902</v>
+        <v>0.000205997028388083</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.003967222757637501</v>
+        <v>0.0001627617311896756</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.00101425894536078</v>
+        <v>5.213105032453313e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0008638171711936593</v>
+        <v>2.31067679123953e-06</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.002356200944632292</v>
+        <v>0.0001260844292119145</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.00023035699268803</v>
+        <v>0.0002901178377214819</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.001876508467830718</v>
+        <v>0.0002491967170499265</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.000235992600210011</v>
+        <v>0.0003845276369247586</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.003637571120634675</v>
+        <v>0.0002219675225205719</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.002868073992431164</v>
+        <v>5.921100455452688e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.00228074355982244</v>
+        <v>0.0002058946702163666</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.002801554976031184</v>
+        <v>4.550995799945667e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.001311733736656606</v>
+        <v>0.0001016643655020744</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.001615498098544776</v>
+        <v>1.706030525383539e-05</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0003351325576659292</v>
+        <v>0.0001762715837685391</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0005317296599969268</v>
+        <v>7.671427738387138e-05</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.001124325324781239</v>
+        <v>1.332174360868521e-05</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0001402905618306249</v>
+        <v>2.109953493345529e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.001163041684776545</v>
+        <v>9.258476347895339e-05</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.007213267497718334</v>
+        <v>0.000260337081272155</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.001144428970292211</v>
+        <v>0.0003704421105794609</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0009937789291143417</v>
+        <v>0.0001619827817194164</v>
       </c>
       <c r="DI5" t="n">
-        <v>5.684734787791967e-06</v>
+        <v>1.211552444146946e-05</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.001174933509901166</v>
+        <v>0.0003850498469546437</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.0009508732473477721</v>
+        <v>0.0002289187395945191</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0005500398110598326</v>
+        <v>0.0001534690090920776</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.003596265334635973</v>
+        <v>0.0002912035561166704</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0002883042907342315</v>
+        <v>6.922854663571343e-05</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.004284641705453396</v>
+        <v>0.0001614904031157494</v>
       </c>
       <c r="DP5" t="n">
-        <v>9.28430090425536e-05</v>
+        <v>0.0001851744746090844</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.000613513111602515</v>
+        <v>0.0003596328315325081</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0009569909889250994</v>
+        <v>0.0002430248277960345</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.0009082809556275606</v>
+        <v>0.0003420467546675354</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.001080190995708108</v>
+        <v>0.0001608179009053856</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0001564176345709711</v>
+        <v>0.000142073942697607</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.002158259972929955</v>
+        <v>4.140605960856192e-05</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.000585983507335186</v>
+        <v>0.0001568274601595476</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0008103043073788285</v>
+        <v>9.831093484535813e-05</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0004988758591935039</v>
+        <v>0.000151512780576013</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0002624742919579148</v>
+        <v>0.0004381779581308365</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.001433676690794528</v>
+        <v>0.0001012568245641887</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.001226426567882299</v>
+        <v>0.0002179211005568504</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0002853787736967206</v>
+        <v>0.0001329792139586061</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.00176607770845294</v>
+        <v>0.0003364782896824181</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.000694389920681715</v>
+        <v>8.075020741671324e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.005530125461518764</v>
+        <v>0.0001086003612726927</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.003003958379849792</v>
+        <v>0.000205786491278559</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.002901734318584204</v>
+        <v>2.231908729299903e-05</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.001438724575564265</v>
+        <v>4.414484646986239e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.001342208590358496</v>
+        <v>0.0001149551244452596</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.002229758072644472</v>
+        <v>0.0001575190253788605</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0006152407149784267</v>
+        <v>0.0001581963879289106</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.002850484801456332</v>
+        <v>4.260008063283749e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.001713883131742477</v>
+        <v>1.692054865998216e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0006874765385873616</v>
+        <v>3.559614560799673e-05</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.002174038905650377</v>
+        <v>0.0001649047044338658</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0009929467923939228</v>
+        <v>0.0001550035667605698</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.001416751649230719</v>
+        <v>0.0001098212524084374</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0009459803113713861</v>
+        <v>0.0003199728380423039</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.002755967201665044</v>
+        <v>0.0001331830280832946</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.001334778848104179</v>
+        <v>1.135572529165074e-05</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.0008186382474377751</v>
+        <v>0.0002301178756169975</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.002229158068075776</v>
+        <v>4.197219823254272e-05</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.002962756901979446</v>
+        <v>3.562559140846133e-05</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.001839398290030658</v>
+        <v>0.0002372161252424121</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.003057271940633655</v>
+        <v>6.738981028320268e-06</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.00157833460252732</v>
+        <v>8.835396147333086e-05</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.000240681431023404</v>
+        <v>3.792001007241197e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>3.281747922301292e-05</v>
+        <v>0.0001474206219427288</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0005461992113851011</v>
+        <v>0.0001142442488344386</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.001645481330342591</v>
+        <v>1.67081416293513e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0004354528791736811</v>
+        <v>9.485553164267913e-06</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.002976456191390753</v>
+        <v>5.282268466544338e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.002121273661032319</v>
+        <v>2.309653609700035e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.001943348441272974</v>
+        <v>9.304241393692791e-05</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.003413686528801918</v>
+        <v>0.0002458585368003696</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0009844654705375433</v>
+        <v>0.0001415561564499512</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.001244095619767904</v>
+        <v>6.767958439013455e-06</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.0008138860575854778</v>
+        <v>0.0002505766460672021</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.00263596186414361</v>
+        <v>0.0001018349576042965</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.002178491791710258</v>
+        <v>4.34348767157644e-05</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.00231639901176095</v>
+        <v>8.820655784802511e-05</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.009789680130779743</v>
+        <v>0.0006207945989444852</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0007931763539090753</v>
+        <v>0.0001460673956898972</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.001783063285984099</v>
+        <v>0.0002868794836103916</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.000423328165197745</v>
+        <v>0.0002912297495640814</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.001444439054466784</v>
+        <v>0.0001616070512682199</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.0002983508165925741</v>
+        <v>0.0005050147301517427</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0008646331843920052</v>
+        <v>5.536017852136865e-05</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.001852717716246843</v>
+        <v>6.763025157852098e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.001560302684083581</v>
+        <v>0.0001351693354081362</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.002169881481677294</v>
+        <v>0.0001638392714085057</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.0003908394137397408</v>
+        <v>0.0002990422945003957</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.002224418101832271</v>
+        <v>5.283841892378405e-05</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.0009178370237350464</v>
+        <v>2.932919960585423e-05</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.003755532205104828</v>
+        <v>3.87108520953916e-05</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.001166391652077436</v>
+        <v>0.0001059228161466308</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.002015164587646723</v>
+        <v>6.570570985786617e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.001409134129062295</v>
+        <v>3.589993139030412e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1458249241113663</v>
+        <v>0.0009190458804368973</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02451096661388874</v>
+        <v>0.03380119055509567</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1294323205947876</v>
+        <v>0.002701015677303076</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05681227147579193</v>
+        <v>0.01650053262710571</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008057313039898872</v>
+        <v>0.006508530117571354</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003660487709566951</v>
+        <v>0.03485697507858276</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002370213158428669</v>
+        <v>0.002559166867285967</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02878049574792385</v>
+        <v>0.01257401145994663</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04147233814001083</v>
+        <v>0.001774457050487399</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1502301841974258</v>
+        <v>0.005121848080307245</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01366681046783924</v>
+        <v>0.0312433447688818</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1384751796722412</v>
+        <v>0.001339048845693469</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0338020883500576</v>
+        <v>0.01641712337732315</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06663606315851212</v>
+        <v>0.002539339940994978</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002871189266443253</v>
+        <v>0.03313067182898521</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02098984085023403</v>
+        <v>0.0045106066390872</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02485045045614243</v>
+        <v>0.004810147918760777</v>
       </c>
       <c r="R6" t="n">
-        <v>0.06396741420030594</v>
+        <v>0.001094372943043709</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002620539627969265</v>
+        <v>0.002883101813495159</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03754210472106934</v>
+        <v>0.004482035525143147</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0117480531334877</v>
+        <v>4.633376374840736e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001770110568031669</v>
+        <v>0.00104567501693964</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02298271842300892</v>
+        <v>0.0002451400214340538</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01141106709837914</v>
+        <v>0.0003685073752421886</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.003956143744289875</v>
+        <v>0.002293624449521303</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0434565581381321</v>
+        <v>0.002231694059446454</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.008946020156145096</v>
+        <v>0.0032808524556458</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.009198876097798347</v>
+        <v>0.0001057120971381664</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0136908171698451</v>
+        <v>0.003142671193927526</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.004616045393049717</v>
+        <v>0.002489623380824924</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0001598314847797155</v>
+        <v>0.004886428359895945</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.001892957254312932</v>
+        <v>0.001702590496279299</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.01480989530682564</v>
+        <v>0.001234949799254537</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.01118591986596584</v>
+        <v>0.001791309332475066</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.03816491737961769</v>
+        <v>0.002579959342256188</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.02428510971367359</v>
+        <v>0.0003370870254002512</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.02625040896236897</v>
+        <v>0.001978387590497732</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.03564542531967163</v>
+        <v>0.006779844872653484</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.01552596129477024</v>
+        <v>0.001279108109883964</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.01953946612775326</v>
+        <v>0.0008254512213170528</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.01444194652140141</v>
+        <v>0.002917506499215961</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.02626261115074158</v>
+        <v>0.004645831417292356</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0002477545058354735</v>
+        <v>0.002166986232623458</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.003549975575879216</v>
+        <v>0.001439025742001832</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.005929389968514442</v>
+        <v>0.00254484242759645</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.05985349789261818</v>
+        <v>0.005374545231461525</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.02493073046207428</v>
+        <v>0.02521516196429729</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.08015414327383041</v>
+        <v>0.003092711558565497</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.004013177007436752</v>
+        <v>0.003984817303717136</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.02095748111605644</v>
+        <v>0.002662962768226862</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.02838136628270149</v>
+        <v>0.01459407340735197</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.02326812967658043</v>
+        <v>0.004912559874355793</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.02762405760586262</v>
+        <v>0.00256741140037775</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.005269685760140419</v>
+        <v>0.003450070973485708</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.02674602344632149</v>
+        <v>0.002878493862226605</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.01576283946633339</v>
+        <v>0.003920234739780426</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.03153689578175545</v>
+        <v>0.008557816036045551</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.004904757253825665</v>
+        <v>0.002939089201390743</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01747911050915718</v>
+        <v>0.01207178831100464</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.02294327691197395</v>
+        <v>0.01384462788701057</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.001333707827143371</v>
+        <v>0.004844075534492731</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.03201454132795334</v>
+        <v>0.002491137012839317</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.005419600289314985</v>
+        <v>0.001820994191803038</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.01540532615035772</v>
+        <v>0.000467991572804749</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.008345300331711769</v>
+        <v>0.00347450515255332</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.02792759425938129</v>
+        <v>0.00105121941305697</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.01340177189558744</v>
+        <v>0.004528972320258617</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.06339287012815475</v>
+        <v>0.004090416710823774</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.01355491392314434</v>
+        <v>0.0004713069938588887</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.01903127878904343</v>
+        <v>0.003881482407450676</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.01343671511858702</v>
+        <v>0.0009400075650773942</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.003185510169714689</v>
+        <v>0.00110019906423986</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.05468174442648888</v>
+        <v>0.003751842305064201</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.009053361602127552</v>
+        <v>0.01199730671942234</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.03301706910133362</v>
+        <v>0.001300387550145388</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.03858081996440887</v>
+        <v>0.004048223607242107</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.005555687472224236</v>
+        <v>0.0006866013281978667</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.02596656791865826</v>
+        <v>0.006363236345350742</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.01611809432506561</v>
+        <v>0.001906621735543013</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.0132377864792943</v>
+        <v>0.003654589178040624</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.004316405393183231</v>
+        <v>0.002997239585965872</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.0304806511849165</v>
+        <v>0.0002537864784244448</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03051991015672684</v>
+        <v>0.005824042949825525</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.02528937719762325</v>
+        <v>0.002512172097340226</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.01048403978347778</v>
+        <v>0.003621159121394157</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.008159732446074486</v>
+        <v>0.0005380000802688301</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.0001844673679443076</v>
+        <v>0.005690823774784803</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.002744160825386643</v>
+        <v>0.003067632438614964</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.00999851617962122</v>
+        <v>0.001625520526431501</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.004311377182602882</v>
+        <v>0.001918122638016939</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.006071564741432667</v>
+        <v>0.004417275544255972</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.03093908168375492</v>
+        <v>4.209921462461352e-05</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.0008302961941808462</v>
+        <v>7.73109495639801e-05</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.006792700849473476</v>
+        <v>0.003088440513238311</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.03516566753387451</v>
+        <v>0.002362705068662763</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.00441996892914176</v>
+        <v>0.0009546834626235068</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.02251408994197845</v>
+        <v>0.004318505525588989</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.0267207957804203</v>
+        <v>0.007585923187434673</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.03909511864185333</v>
+        <v>0.0006987765082158148</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.02543425001204014</v>
+        <v>0.0001901026407722384</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.02432619035243988</v>
+        <v>0.00454976549372077</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.02319916896522045</v>
+        <v>0.002241150243207812</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.01058517023921013</v>
+        <v>0.004735579714179039</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.01253329403698444</v>
+        <v>0.0002523273578844965</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.003955380525439978</v>
+        <v>0.006124353967607021</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.006067671813070774</v>
+        <v>0.002694525755941868</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.004947380628436804</v>
+        <v>0.002635432872921228</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.003932964988052845</v>
+        <v>0.0006791696650907397</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.01673609018325806</v>
+        <v>0.001678805681876838</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.07607204467058182</v>
+        <v>0.005555516108870506</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.03556789830327034</v>
+        <v>0.0005056742229498923</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.006124491803348064</v>
+        <v>0.006932707037776709</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.006039341446012259</v>
+        <v>0.00626304280012846</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.002447849605232477</v>
+        <v>0.00322488253004849</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.01039677672088146</v>
+        <v>0.003974194172769785</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.02784236706793308</v>
+        <v>0.006620505359023809</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.02862291410565376</v>
+        <v>0.00415235199034214</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.002110792091116309</v>
+        <v>0.0006578680477105081</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.03852774575352669</v>
+        <v>0.0001217173412442207</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.002823015674948692</v>
+        <v>0.001047942670993507</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.002612808253616095</v>
+        <v>0.005745633039623499</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.002639630576595664</v>
+        <v>0.001018722774460912</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.01068304665386677</v>
+        <v>0.004460471216589212</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.02047668769955635</v>
+        <v>0.003323371056467295</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.004361506551504135</v>
+        <v>0.0005608617793768644</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.01806445233523846</v>
+        <v>0.002918053418397903</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.009251655079424381</v>
+        <v>0.0006308912998065352</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.001251704059541225</v>
+        <v>0.002391907386481762</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.00371393677778542</v>
+        <v>0.003523747669532895</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.001352773979306221</v>
+        <v>0.003512030467391014</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.009071273729205132</v>
+        <v>0.0007200394757091999</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.00878099724650383</v>
+        <v>0.001035696361213923</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.004729673732072115</v>
+        <v>0.001023073680698872</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.03011856414377689</v>
+        <v>0.001666840631514788</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.01100594643503428</v>
+        <v>0.001434338861145079</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.05267895385622978</v>
+        <v>0.002751560416072607</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03037991374731064</v>
+        <v>0.004574889317154884</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.02349654585123062</v>
+        <v>0.002224595751613379</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.01612433791160583</v>
+        <v>0.0008624161710031331</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.007427248172461987</v>
+        <v>0.0023800078779459</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.01431204378604889</v>
+        <v>0.005490037612617016</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.009232609532773495</v>
+        <v>0.003845480736345053</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.0219153854995966</v>
+        <v>0.000516673899255693</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.006344896741211414</v>
+        <v>0.0004138027434237301</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.004993286915123463</v>
+        <v>5.663151387125254e-05</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.02689038962125778</v>
+        <v>0.004160802811384201</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.009661905467510223</v>
+        <v>0.002000767970457673</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.01145258639007807</v>
+        <v>0.002469022758305073</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.007541931699961424</v>
+        <v>0.001312821637839079</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.03503832221031189</v>
+        <v>0.005386313423514366</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.02582080475986004</v>
+        <v>0.00192614458501339</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.01350839529186487</v>
+        <v>0.005626020487397909</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.02302661538124084</v>
+        <v>0.001111620804294944</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.02543170750141144</v>
+        <v>0.0007526416447944939</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02095383405685425</v>
+        <v>0.004797128029167652</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.02672564797103405</v>
+        <v>0.001117271720431745</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.01363241858780384</v>
+        <v>0.004035881720483303</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.001937249908223748</v>
+        <v>0.0004736992123071104</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.006404668092727661</v>
+        <v>0.005401418078690767</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.00353655987419188</v>
+        <v>0.003631731495261192</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.007059461902827024</v>
+        <v>0.001462873187847435</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.004253661725670099</v>
+        <v>0.001797553384676576</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.02194545604288578</v>
+        <v>0.001071836333721876</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.02136189863085747</v>
+        <v>0.0002562320150900632</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.01733682863414288</v>
+        <v>0.002991694957017899</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.03318637609481812</v>
+        <v>0.006485667079687119</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.007180219516158104</v>
+        <v>1.241962308995426e-06</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.008546561002731323</v>
+        <v>0.0004630170296877623</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.009043506346642971</v>
+        <v>0.002036439022049308</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.02843517251312733</v>
+        <v>0.001847815234214067</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.01567890681326389</v>
+        <v>0.001736393081955612</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.01497979834675789</v>
+        <v>0.001350864302366972</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.07686185091733932</v>
+        <v>0.01007712911814451</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.009095560759305954</v>
+        <v>0.0007930771680548787</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.003769381903111935</v>
+        <v>0.006278350949287415</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.01761449314653873</v>
+        <v>0.001315622357651591</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.01880014315247536</v>
+        <v>0.003865431295707822</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.007075355388224125</v>
+        <v>0.002563798800110817</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.02052927762269974</v>
+        <v>0.001514869974926114</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.02375770173966885</v>
+        <v>0.0004767626523971558</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.007196890655905008</v>
+        <v>0.003845370840281248</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.0169624425470829</v>
+        <v>0.003135597100481391</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.0003144638612866402</v>
+        <v>0.0008136879187077284</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.006142821628600359</v>
+        <v>0.001820048899389803</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.007691293023526669</v>
+        <v>0.003027399070560932</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.03277977555990219</v>
+        <v>0.002269788412377238</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.01514384523034096</v>
+        <v>0.008734759874641895</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.02914910949766636</v>
+        <v>0.001331084873527288</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.009094172157347202</v>
+        <v>0.000802357099018991</v>
       </c>
     </row>
     <row r="7">
@@ -4418,571 +4418,571 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.004743842408061028</v>
+        <v>0.001706086448393762</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0009651793516241014</v>
+        <v>0.05159669741988182</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002958727767691016</v>
+        <v>0.0003815741511061788</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002397591713815928</v>
+        <v>0.0007394223939627409</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0009333824273198843</v>
+        <v>0.0003351727791596204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00055467284983024</v>
+        <v>0.03957074508070946</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001036710105836391</v>
+        <v>0.004483873955905437</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008301087073050439</v>
+        <v>0.01942944340407848</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001348000019788742</v>
+        <v>0.01672435365617275</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004700532183051109</v>
+        <v>0.007229003123939037</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0007872458081692457</v>
+        <v>0.05370419099926949</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003267068881541491</v>
+        <v>0.0009681922383606434</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001483824220485985</v>
+        <v>0.004716707859188318</v>
       </c>
       <c r="N8" t="n">
-        <v>7.912679575383663e-05</v>
+        <v>0.006125133018940687</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0004227313911542296</v>
+        <v>0.03452211618423462</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001630479469895363</v>
+        <v>0.01099721528589725</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0008506856393069029</v>
+        <v>0.004208879545331001</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002058966783806682</v>
+        <v>0.008753293193876743</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0002640174643602222</v>
+        <v>0.0019227514276281</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001589506748132408</v>
+        <v>0.0008918836247175932</v>
       </c>
       <c r="U8" t="n">
-        <v>7.473095320165157e-05</v>
+        <v>0.009562328457832336</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0002904328575823456</v>
+        <v>0.002254740800708532</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0003402974980417639</v>
+        <v>0.002645286032930017</v>
       </c>
       <c r="X8" t="n">
-        <v>9.349345054943115e-05</v>
+        <v>0.00708096195012331</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.000378142372937873</v>
+        <v>0.0009806696325540543</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001033716020174325</v>
+        <v>0.005963257048279047</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0005173860117793083</v>
+        <v>0.0009865394094958901</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.330673593562096e-05</v>
+        <v>0.005930446088314056</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.619983029551804e-05</v>
+        <v>0.005038633942604065</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0004405344952829182</v>
+        <v>0.01289544254541397</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0005248817033134401</v>
+        <v>0.002664155326783657</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0006438266136683524</v>
+        <v>0.004603694658726454</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0004156482173129916</v>
+        <v>3.11883632093668e-05</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0004175091744400561</v>
+        <v>0.002707904204726219</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.001087217242456973</v>
+        <v>0.0003235200420022011</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.001111413817852736</v>
+        <v>0.001758819329552352</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0009072220418602228</v>
+        <v>0.008551626466214657</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.001516997581347823</v>
+        <v>0.005445851944386959</v>
       </c>
       <c r="AM8" t="n">
-        <v>9.033612150233239e-05</v>
+        <v>0.01253698021173477</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.001150797470472753</v>
+        <v>0.002037270925939083</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0002545689640101045</v>
+        <v>0.006574473343789577</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0003551710105966777</v>
+        <v>0.004967096261680126</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4.699099372373894e-05</v>
+        <v>0.003579337615519762</v>
       </c>
       <c r="AR8" t="n">
-        <v>8.182117016986012e-05</v>
+        <v>0.006963875610381365</v>
       </c>
       <c r="AS8" t="n">
-        <v>3.356287561473437e-05</v>
+        <v>0.004853934515267611</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.001950710895471275</v>
+        <v>0.0008326402166858315</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.0007949511636979878</v>
+        <v>0.03990281000733376</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.001338083879090846</v>
+        <v>0.01709840632975101</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0005214161355979741</v>
+        <v>0.003576493123546243</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.000186501449206844</v>
+        <v>0.01234375592321157</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0009046609629876912</v>
+        <v>0.006654478143900633</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.000549413962289691</v>
+        <v>0.008719454519450665</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0007775837439112365</v>
+        <v>0.0006484277546405792</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0006144326762296259</v>
+        <v>0.0104760080575943</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.001007930724881589</v>
+        <v>0.006284214090555906</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.000370670750271529</v>
+        <v>0.01990831270813942</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.001147877424955368</v>
+        <v>0.00630222400650382</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0003524530329741538</v>
+        <v>0.007784836459904909</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0002895843354053795</v>
+        <v>0.0009797895327210426</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0005563332815654576</v>
+        <v>0.02687260136008263</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0009404775919392705</v>
+        <v>0.00126129062846303</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.0008956283563748002</v>
+        <v>0.007498015649616718</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.000701582757756114</v>
+        <v>0.005520678590983152</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.00065921142231673</v>
+        <v>0.009008867666125298</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0005508268368430436</v>
+        <v>0.0005062590353190899</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0004380863683763891</v>
+        <v>0.004339758306741714</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0003026759368367493</v>
+        <v>0.01096191816031933</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.001104663475416601</v>
+        <v>0.005530302412807941</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0002286937524331734</v>
+        <v>0.002128840191289783</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0004133546026423573</v>
+        <v>0.007765696849673986</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0003872282395604998</v>
+        <v>0.004604165442287922</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0003347581368871033</v>
+        <v>0.0008719316101633012</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.001809445791877806</v>
+        <v>0.00196397234685719</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.0002903944114223123</v>
+        <v>0.02048859000205994</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0008270267862826586</v>
+        <v>0.01296789292246103</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.001617406029254198</v>
+        <v>0.002410748042166233</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.0006084120832383633</v>
+        <v>0.00942529458552599</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.0002768981503322721</v>
+        <v>0.002436046954244375</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0002946977620013058</v>
+        <v>0.002788517624139786</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.0006690661539323628</v>
+        <v>0.0001770104863680899</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0004060014616698027</v>
+        <v>0.004576421342790127</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0009625020902603865</v>
+        <v>0.0014091229531914</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.0009369389154016972</v>
+        <v>0.006564408075064421</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.0005639867158606648</v>
+        <v>0.004219610244035721</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0002763967495411634</v>
+        <v>0.0008688610978424549</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0001387029478792101</v>
+        <v>0.00137578253634274</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.0002736132009886205</v>
+        <v>0.007855853997170925</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0001776620629243553</v>
+        <v>0.003210018388926983</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0003232797025702894</v>
+        <v>0.00157287169713527</v>
       </c>
       <c r="CL8" t="n">
-        <v>4.285306931706145e-05</v>
+        <v>0.002210782142356038</v>
       </c>
       <c r="CM8" t="n">
-        <v>1.913218875415623e-05</v>
+        <v>0.004131713882088661</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.0007238693069666624</v>
+        <v>0.01336886361241341</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0002984477032441646</v>
+        <v>0.001326827681623399</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0001082882954506204</v>
+        <v>0.007748844102025032</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0007877711323089898</v>
+        <v>0.00731911463662982</v>
       </c>
       <c r="CR8" t="n">
-        <v>2.746137397480197e-05</v>
+        <v>0.002114664996042848</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0005997367552481592</v>
+        <v>0.006420055404305458</v>
       </c>
       <c r="CT8" t="n">
-        <v>3.330418621771969e-05</v>
+        <v>0.01477071736007929</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.0007252780487760901</v>
+        <v>0.009855548851191998</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0008490513428114355</v>
+        <v>0.0003777671372517943</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.0008763301884755492</v>
+        <v>0.006856567692011595</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.0006965702632442117</v>
+        <v>0.00460390467196703</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.0002019722887780517</v>
+        <v>0.0005304553778842092</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.000799934845417738</v>
+        <v>0.00189488974865526</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0002098879194818437</v>
+        <v>0.008679811842739582</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0002201998431701213</v>
+        <v>0.000922089908272028</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.0001990919263334945</v>
+        <v>0.001687070936895907</v>
       </c>
       <c r="DD8" t="n">
-        <v>5.449278251035139e-05</v>
+        <v>0.002955760108307004</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.0004030719574075192</v>
+        <v>0.0009856156539171934</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.002043589018285275</v>
+        <v>0.006694110576063395</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.0002260803448734805</v>
+        <v>0.01078102551400661</v>
       </c>
       <c r="DH8" t="n">
-        <v>8.367013651877642e-05</v>
+        <v>0.01061536837369204</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.0005622246535494924</v>
+        <v>0.01496516913175583</v>
       </c>
       <c r="DJ8" t="n">
-        <v>7.150509918574244e-05</v>
+        <v>0.01491277944296598</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0004537749337032437</v>
+        <v>0.007730752229690552</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0001456079335184768</v>
+        <v>0.002577697159722447</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.0003449221549089998</v>
+        <v>0.01169888395816088</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.0002536618558224291</v>
+        <v>0.00435993168503046</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.001061792369000614</v>
+        <v>0.00250877533107996</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0002585118927527219</v>
+        <v>0.004182483069598675</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0003869282081723213</v>
+        <v>0.001653262879699469</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0001345070777460933</v>
+        <v>0.0001064231619238853</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.0004724429163616151</v>
+        <v>0.009469396434724331</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.000394477741792798</v>
+        <v>0.001214063260704279</v>
       </c>
       <c r="DU8" t="n">
-        <v>1.480781065765768e-06</v>
+        <v>0.0007085166871547699</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0005024667480029166</v>
+        <v>0.005771019030362368</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.0002832589671015739</v>
+        <v>0.001162315485998988</v>
       </c>
       <c r="DX8" t="n">
-        <v>8.612024248577654e-05</v>
+        <v>0.004511457402259111</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.0001939972426043823</v>
+        <v>0.006352017633616924</v>
       </c>
       <c r="DZ8" t="n">
-        <v>1.000941847451031e-05</v>
+        <v>0.005359460599720478</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.001075236592441797</v>
+        <v>0.004008767195045948</v>
       </c>
       <c r="EB8" t="n">
-        <v>7.530870789196342e-05</v>
+        <v>0.006590310018509626</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0001696121762506664</v>
+        <v>0.002509568585082889</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.0008598502608947456</v>
+        <v>0.01312760263681412</v>
       </c>
       <c r="EE8" t="n">
-        <v>5.593369132839143e-05</v>
+        <v>0.009141584858298302</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.001552186673507094</v>
+        <v>0.0004357517464086413</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.0008785026730038226</v>
+        <v>0.009675119072198868</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.0006143840146251023</v>
+        <v>0.005309692118316889</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0003164604131598026</v>
+        <v>0.004629302769899368</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0001652533392189071</v>
+        <v>0.004182782489806414</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.0001764477492542937</v>
+        <v>0.004410979803651571</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0003247559652663767</v>
+        <v>0.0003304863348603249</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.0005831164307892323</v>
+        <v>0.000240902416408062</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.0004810833197552711</v>
+        <v>0.001244829036295414</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0001388712553307414</v>
+        <v>0.002916628960520029</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.001395323546603322</v>
+        <v>0.00404915539547801</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.0001588609302416444</v>
+        <v>0.00914638489484787</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0006923000328242779</v>
+        <v>0.005583563353866339</v>
       </c>
       <c r="ES8" t="n">
-        <v>9.806318848859519e-05</v>
+        <v>0.008905374445021152</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.0005365934921428561</v>
+        <v>0.003756881225854158</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0003245587286073714</v>
+        <v>0.006930057890713215</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0003888235369231552</v>
+        <v>0.009959077462553978</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.000538126565515995</v>
+        <v>0.004996664356440306</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.0008007222786545753</v>
+        <v>0.0009751291945576668</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.0007803264888934791</v>
+        <v>0.005377825815230608</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.0007204526336863637</v>
+        <v>0.005648575723171234</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.0002593184763099998</v>
+        <v>0.003253428731113672</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.0005505193257704377</v>
+        <v>0.004499744158238173</v>
       </c>
       <c r="FC8" t="n">
-        <v>8.635994890937582e-05</v>
+        <v>0.007179728709161282</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0001925705437315628</v>
+        <v>0.001091100042685866</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.0003494126140139997</v>
+        <v>0.0002434040361549705</v>
       </c>
       <c r="FF8" t="n">
-        <v>9.802311251405627e-05</v>
+        <v>0.003897178685292602</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.0008969301707111299</v>
+        <v>0.001982571091502905</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.0007530412403866649</v>
+        <v>0.004463204182684422</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.0006049061776138842</v>
+        <v>0.01135534513741732</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.0009466569172218442</v>
+        <v>0.004747764207422733</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.0001100551598938182</v>
+        <v>0.00125596672296524</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.0005057381931692362</v>
+        <v>0.004893649369478226</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0007941145449876785</v>
+        <v>0.006857265252619982</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.001236084033735096</v>
+        <v>0.003704427741467953</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.0004936271579936147</v>
+        <v>0.002578927902504802</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0004164734564255923</v>
+        <v>0.004689935594797134</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.002325889654457569</v>
+        <v>0.01976138167083263</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.0002099648409057409</v>
+        <v>0.01349599659442902</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.0006910555530339479</v>
+        <v>0.007129980251193047</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0005474615609273314</v>
+        <v>0.005098306573927402</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.0002517995308153331</v>
+        <v>0.003625939600169659</v>
       </c>
       <c r="FV8" t="n">
-        <v>8.421577513217926e-05</v>
+        <v>0.006923834793269634</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.0007089658174663782</v>
+        <v>0.01052712835371494</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.0003040281007997692</v>
+        <v>8.539354894310236e-05</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0008364345412701368</v>
+        <v>0.01201437413692474</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.0005879898089915514</v>
+        <v>0.01044621970504522</v>
       </c>
       <c r="GA8" t="n">
-        <v>3.563921563909389e-05</v>
+        <v>0.01028230600059032</v>
       </c>
       <c r="GB8" t="n">
-        <v>4.189527680864558e-05</v>
+        <v>0.008626613765954971</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.0002476501103956252</v>
+        <v>0.01329541392624378</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.000713431101758033</v>
+        <v>0.004679946228861809</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0004999649827368557</v>
+        <v>0.006154908798635006</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.0008488661260344088</v>
+        <v>0.003479107283055782</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.0002765918907243758</v>
+        <v>0.00411860179156065</v>
       </c>
     </row>
     <row r="9">
@@ -5556,2278 +5556,2278 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.05369405075907707</v>
+        <v>0.04712750762701035</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01503534242510796</v>
+        <v>0.1433916836977005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04980333894491196</v>
+        <v>0.02444591373205185</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01639688387513161</v>
+        <v>0.07096441090106964</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02457539737224579</v>
+        <v>0.1228159368038177</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008140566758811474</v>
+        <v>0.2274920493364334</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004372140392661095</v>
+        <v>0.005219247192144394</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01043389737606049</v>
+        <v>0.1008017957210541</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01344001851975918</v>
+        <v>0.01917916536331177</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05355015769600868</v>
+        <v>0.03184634819626808</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004316065460443497</v>
+        <v>0.1266021728515625</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04743553698062897</v>
+        <v>0.01622585579752922</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01265307050198317</v>
+        <v>0.04926870763301849</v>
       </c>
       <c r="N10" t="n">
-        <v>0.004660312086343765</v>
+        <v>0.02824268862605095</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0005948612233623862</v>
+        <v>0.1535261273384094</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002053634030744433</v>
+        <v>0.002018595114350319</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01245233416557312</v>
+        <v>0.1050875931978226</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0164364892989397</v>
+        <v>0.01346465479582548</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002544161630794406</v>
+        <v>0.002161890733987093</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01436027884483337</v>
+        <v>0.01089541334658861</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00539708137512207</v>
+        <v>0.03008130937814713</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001283443300053477</v>
+        <v>0.05383708328008652</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0009898091666400433</v>
+        <v>0.05283989012241364</v>
       </c>
       <c r="X10" t="n">
-        <v>0.003378811059519649</v>
+        <v>0.02362174354493618</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001220337580889463</v>
+        <v>0.02399009093642235</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0004335279809311032</v>
+        <v>0.01517460215836763</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001067892881110311</v>
+        <v>0.01284207124263048</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0006910258671268821</v>
+        <v>0.008842597715556622</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01046987250447273</v>
+        <v>0.009559900499880314</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.006044774316251278</v>
+        <v>0.01922261901199818</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01453365199267864</v>
+        <v>0.007356845773756504</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.003422345034778118</v>
+        <v>0.01846639811992645</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.002886583795771003</v>
+        <v>0.03657849133014679</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0006893603131175041</v>
+        <v>0.04842814430594444</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.01049846038222313</v>
+        <v>0.01701099425554276</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0125045096501708</v>
+        <v>0.008317267522215843</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.01150286663323641</v>
+        <v>0.0007229659240692854</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.008866891264915466</v>
+        <v>0.02026758715510368</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.005953319370746613</v>
+        <v>0.01391260512173176</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.009641929529607296</v>
+        <v>0.01491841953247786</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0004884180380031466</v>
+        <v>0.01996278949081898</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.004028542432934046</v>
+        <v>0.04236643016338348</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0002733120345510542</v>
+        <v>0.007256674580276012</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.01440710853785276</v>
+        <v>0.03239411115646362</v>
       </c>
       <c r="AS10" t="n">
-        <v>3.551481495378539e-05</v>
+        <v>0.01266696862876415</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.03128150478005409</v>
+        <v>0.03142120689153671</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.01095771603286266</v>
+        <v>0.05692487955093384</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0219414159655571</v>
+        <v>0.004505757242441177</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0009501711465418339</v>
+        <v>0.008752081543207169</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.003501377301290631</v>
+        <v>0.1026384606957436</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01115849334746599</v>
+        <v>0.1515335887670517</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.01758155412971973</v>
+        <v>0.003288226202130318</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.001381512964144349</v>
+        <v>0.04233349859714508</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.001671560108661652</v>
+        <v>0.02976066619157791</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.003501998726278543</v>
+        <v>0.0002376860793447122</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.01037766877561808</v>
+        <v>0.04347167909145355</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.01373217534273863</v>
+        <v>0.01114590745419264</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.007581157144159079</v>
+        <v>0.05577361583709717</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.02103264257311821</v>
+        <v>0.06229211017489433</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.008760361932218075</v>
+        <v>0.02814295887947083</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.01203241478651762</v>
+        <v>0.01287032756954432</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.009978210553526878</v>
+        <v>0.01184569858014584</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.004160648211836815</v>
+        <v>0.003300890326499939</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.01109092403203249</v>
+        <v>0.01239464804530144</v>
       </c>
       <c r="BM10" t="n">
-        <v>4.284258466213942e-06</v>
+        <v>0.04050895571708679</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.007975084707140923</v>
+        <v>0.02219844609498978</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0002002957044169307</v>
+        <v>0.001404132228344679</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.008140945807099342</v>
+        <v>0.01987367495894432</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.007620376534759998</v>
+        <v>0.001059878151863813</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.001773670315742493</v>
+        <v>0.03378418833017349</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.01325196120887995</v>
+        <v>0.03468512371182442</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.002683984814211726</v>
+        <v>0.02485044114291668</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.02638915367424488</v>
+        <v>0.02189884707331657</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0003078910522162914</v>
+        <v>0.04884388670325279</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.01582464762032032</v>
+        <v>0.009585928171873093</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.009064558893442154</v>
+        <v>0.01435249019414186</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.0142142903059721</v>
+        <v>0.04464217275381088</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.006425886414945126</v>
+        <v>0.04976223409175873</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.01014200877398252</v>
+        <v>0.001387776806950569</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.00492917699739337</v>
+        <v>0.03857239708304405</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.004749475978314877</v>
+        <v>0.01572174206376076</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.01293827220797539</v>
+        <v>0.001120753353461623</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.004921289626508951</v>
+        <v>0.0178097877651453</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.007130732294172049</v>
+        <v>0.005166313610970974</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.003761715022847056</v>
+        <v>0.01972636207938194</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0001189126633107662</v>
+        <v>0.01562050543725491</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.002801519585773349</v>
+        <v>0.03692580759525299</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0002895307843573391</v>
+        <v>0.0004226444289088249</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.001460693776607513</v>
+        <v>0.01262297574430704</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.001029312610626221</v>
+        <v>0.005211000330746174</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.008304930292069912</v>
+        <v>0.009126413613557816</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.00864070188254118</v>
+        <v>0.02616786025464535</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.002342270687222481</v>
+        <v>0.001446793787181377</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.0001685484312474728</v>
+        <v>0.01860999688506126</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.00824554730206728</v>
+        <v>0.07388193905353546</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.001963567920029163</v>
+        <v>0.01511320658028126</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.01136658806353807</v>
+        <v>0.02197545021772385</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.01429419033229351</v>
+        <v>0.01310364715754986</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.001179278246127069</v>
+        <v>0.03578456863760948</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0124164056032896</v>
+        <v>0.003497880883514881</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.004348165355622768</v>
+        <v>0.01301814429461956</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.007837200537323952</v>
+        <v>0.007131898775696754</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0008914459613151848</v>
+        <v>0.01916562579572201</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.006306692492216825</v>
+        <v>0.02479862608015537</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.002496022963896394</v>
+        <v>0.04488848894834518</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0009084630291908979</v>
+        <v>0.004003733396530151</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.001360104186460376</v>
+        <v>0.02583052776753902</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.002414351096376777</v>
+        <v>0.0073570073582232</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.005825376603752375</v>
+        <v>0.01928194798529148</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.02205624803900719</v>
+        <v>0.08273906260728836</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.006554474588483572</v>
+        <v>0.001155176549218595</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.01757283508777618</v>
+        <v>0.04370120167732239</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.003004001919180155</v>
+        <v>0.1127617880702019</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.003232878167182207</v>
+        <v>0.06331970542669296</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.00204608915373683</v>
+        <v>0.027155676856637</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.008752958849072456</v>
+        <v>0.06460018455982208</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.00392515305429697</v>
+        <v>0.06895426660776138</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.01201534643769264</v>
+        <v>0.01473378483206034</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.006794549990445375</v>
+        <v>0.004172047600150108</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.005485468078404665</v>
+        <v>0.01600822433829308</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0002441979013383389</v>
+        <v>0.04472766444087029</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.009937545284628868</v>
+        <v>0.001370499841868877</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.003648509737104177</v>
+        <v>0.005912914872169495</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.00514945387840271</v>
+        <v>0.01631993055343628</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.001507369568571448</v>
+        <v>0.04112929850816727</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.002400549594312906</v>
+        <v>0.001333547523245215</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.0009732397738844156</v>
+        <v>0.01129958778619766</v>
       </c>
       <c r="DX10" t="n">
-        <v>2.397800562903285e-05</v>
+        <v>0.00741904228925705</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.003910887520760298</v>
+        <v>0.01373250223696232</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.003385829506441951</v>
+        <v>0.005311834160238504</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.006292144767940044</v>
+        <v>0.05040508881211281</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.002458971925079823</v>
+        <v>0.02044681645929813</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.002814512234181166</v>
+        <v>0.008076312951743603</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.01232679653912783</v>
+        <v>0.03636591136455536</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.002083288971334696</v>
+        <v>0.03741450607776642</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.01266347523778677</v>
+        <v>0.01717322878539562</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.000208582729101181</v>
+        <v>0.009555777534842491</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.009755785576999187</v>
+        <v>0.01056214328855276</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.007004268001765013</v>
+        <v>0.002943611703813076</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.00140260299667716</v>
+        <v>0.02868196740746498</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.008161666803061962</v>
+        <v>0.0440874882042408</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.005739825777709484</v>
+        <v>0.005334111396223307</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.005574675276875496</v>
+        <v>0.01117003243416548</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.002993329428136349</v>
+        <v>0.006377573125064373</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.0005157834966666996</v>
+        <v>0.0009383077849633992</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.009886030107736588</v>
+        <v>0.001254206523299217</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.004139297176152468</v>
+        <v>0.01795785874128342</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.003056045155972242</v>
+        <v>0.007921215146780014</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.003389874007552862</v>
+        <v>0.02109802514314651</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.003207448404282331</v>
+        <v>0.02723698876798153</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.01224553771317005</v>
+        <v>0.001488802721723914</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.007192226126790047</v>
+        <v>0.04308160394430161</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.008833223022520542</v>
+        <v>0.007619599346071482</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.01409968640655279</v>
+        <v>0.002900394145399332</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.002020215382799506</v>
+        <v>0.01259025000035763</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.006966769695281982</v>
+        <v>0.0133907338604331</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0002003625850193202</v>
+        <v>0.020231943577528</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.003297304036095738</v>
+        <v>0.02366901561617851</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.00175147270783782</v>
+        <v>0.04165038466453552</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.001669332850724459</v>
+        <v>0.003809747751802206</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.002917075762525201</v>
+        <v>0.02922459319233894</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.002880396787077188</v>
+        <v>0.001104767434298992</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.01142712403088808</v>
+        <v>0.003907022997736931</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.008826254867017269</v>
+        <v>0.02489734068512917</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.007872322574257851</v>
+        <v>0.02619371749460697</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.01652400009334087</v>
+        <v>0.01445958111435175</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.006230136379599571</v>
+        <v>0.01045199856162071</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.01397416926920414</v>
+        <v>0.02719314768910408</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.001834100694395602</v>
+        <v>0.003152217715978622</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.001373329199850559</v>
+        <v>0.01063660904765129</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.001367297954857349</v>
+        <v>0.016221659258008</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.008142635226249695</v>
+        <v>0.004151374101638794</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.02246570773422718</v>
+        <v>0.0004833381390199065</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.004389880690723658</v>
+        <v>0.01693501509726048</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.0304998904466629</v>
+        <v>0.02386743389070034</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.01024668291211128</v>
+        <v>0.08088171482086182</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.004785456694662571</v>
+        <v>0.04746229946613312</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.008656201884150505</v>
+        <v>0.03551556542515755</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.002476517576724291</v>
+        <v>0.03975903987884521</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.002077667275443673</v>
+        <v>0.01202214229851961</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.00393464183434844</v>
+        <v>0.007173672318458557</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.003029789077118039</v>
+        <v>0.008135110139846802</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.006621361710131168</v>
+        <v>0.009591510519385338</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.004069442860782146</v>
+        <v>0.008224392309784889</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.020253736525774</v>
+        <v>0.1067797616124153</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.002454550703987479</v>
+        <v>0.01830577477812767</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.001426793169230223</v>
+        <v>0.02839246392250061</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.007422273978590965</v>
+        <v>0.03268158435821533</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.003663721028715372</v>
+        <v>0.0003768038004636765</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.002913081552833319</v>
+        <v>1.806820364436135e-05</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0009966837242245674</v>
+        <v>0.0001693118247203529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01858576573431492</v>
+        <v>1.221925413119607e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001644065603613853</v>
+        <v>4.994038681616075e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004489879123866558</v>
+        <v>8.930711373977829e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00442138547077775</v>
+        <v>0.0001098079228540882</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002100699115544558</v>
+        <v>1.047545083565637e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006633519195020199</v>
+        <v>5.804403917863965e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0127030722796917</v>
+        <v>1.07554042187985e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003375268075615168</v>
+        <v>1.86575016414281e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001985739450901747</v>
+        <v>0.0001454769808333367</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01693886145949364</v>
+        <v>1.691224724709173e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001181129948236048</v>
+        <v>7.25085410522297e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0005116618704050779</v>
+        <v>7.070140782161616e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006187655497342348</v>
+        <v>9.620121272746474e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0002154730027541518</v>
+        <v>1.572034125274513e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.005360068753361702</v>
+        <v>3.192752046743408e-05</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01307169627398252</v>
+        <v>1.481976141803898e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001029180828481913</v>
+        <v>8.841059752739966e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>0.004369243048131466</v>
+        <v>1.659597728576045e-05</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0002048822934739292</v>
+        <v>9.9136627795815e-07</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001104768831282854</v>
+        <v>1.555540438857861e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001581143354997039</v>
+        <v>2.597339516796637e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0008471104665659368</v>
+        <v>2.750174189714016e-06</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0003429324133321643</v>
+        <v>2.992793952216743e-06</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001411617617122829</v>
+        <v>8.794424502411857e-06</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.00133166357409209</v>
+        <v>3.476679921732284e-08</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0004783537588082254</v>
+        <v>1.78789377969224e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.001700834720395505</v>
+        <v>2.848510484909639e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.001631952822208405</v>
+        <v>1.191777573694708e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.003289700951427221</v>
+        <v>1.098612301575486e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.002529115881770849</v>
+        <v>1.064442130882526e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.002121882978826761</v>
+        <v>1.909644743136596e-05</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0001319109578616917</v>
+        <v>1.541346136946231e-06</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0008196929120458663</v>
+        <v>2.392638816672843e-05</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.002835793886333704</v>
+        <v>1.79165408553672e-06</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0004360487218946218</v>
+        <v>1.805432475521229e-05</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0005113441729918122</v>
+        <v>1.715200596663635e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.004033189732581377</v>
+        <v>7.97897155280225e-06</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.001003486919216812</v>
+        <v>5.679185051121749e-06</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.001559681491926312</v>
+        <v>3.046562142117182e-06</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0009189005941152573</v>
+        <v>2.988306732731871e-05</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.0004879242624156177</v>
+        <v>1.059571513906121e-05</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.001298137591220438</v>
+        <v>1.831370173022151e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0007026543607935309</v>
+        <v>7.622392786288401e-06</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.001227736240252852</v>
+        <v>2.161426527891308e-05</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.001154521713033319</v>
+        <v>0.0001088858043658547</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.009638711810112</v>
+        <v>9.717514330986887e-06</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.0002916419471148401</v>
+        <v>2.471924017299898e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0008537978865206242</v>
+        <v>2.510789454390761e-05</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.001510365633293986</v>
+        <v>7.493198791053146e-05</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.00160118646454066</v>
+        <v>1.300351505051367e-05</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.002653747331351042</v>
+        <v>2.674509232747369e-05</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.006143287755548954</v>
+        <v>3.403688879188849e-06</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0004682040016632527</v>
+        <v>7.110638762242161e-06</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.001693986705504358</v>
+        <v>4.528253339231014e-05</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.003811675356701016</v>
+        <v>3.603153527365066e-05</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0004990437300875783</v>
+        <v>2.27429536607815e-05</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.004280886612832546</v>
+        <v>4.168205487076193e-05</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.0039768829010427</v>
+        <v>3.045056655537337e-05</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0004604316200129688</v>
+        <v>1.032680575008271e-05</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.001984469359740615</v>
+        <v>1.613038307368697e-06</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.003139601787552238</v>
+        <v>8.391329174628481e-06</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0007090391591191292</v>
+        <v>3.813095645455178e-06</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.00195283954963088</v>
+        <v>2.71274802798871e-05</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.001885871984995902</v>
+        <v>1.250794048246462e-05</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0003735680074896663</v>
+        <v>1.918081761687063e-05</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.003978811670094728</v>
+        <v>7.040508535283152e-06</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.002043538494035602</v>
+        <v>5.799924565508263e-06</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.0009518135921098292</v>
+        <v>1.410531422152417e-05</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.001328999409452081</v>
+        <v>1.506895932834595e-05</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.001193727483041584</v>
+        <v>5.732042609452037e-06</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.002765993354842067</v>
+        <v>1.685815732344054e-05</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0008849468431435525</v>
+        <v>5.921976116951555e-05</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.006151903886348009</v>
+        <v>9.959040653484408e-06</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0007785477791912854</v>
+        <v>7.380849638138898e-07</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.003626117948442698</v>
+        <v>7.2701218414295e-06</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.001566680264659226</v>
+        <v>3.29420727211982e-05</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0004545636184047908</v>
+        <v>3.872915840474889e-06</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.001799572841264307</v>
+        <v>1.822592821554281e-05</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.004316392820328474</v>
+        <v>8.743282705836464e-06</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0007879710174165666</v>
+        <v>5.434347713162424e-06</v>
       </c>
       <c r="CE11" t="n">
-        <v>4.165912832831964e-05</v>
+        <v>2.8931004635524e-05</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.003260062076151371</v>
+        <v>1.108704600483179e-05</v>
       </c>
       <c r="CG11" t="n">
-        <v>9.749771561473608e-05</v>
+        <v>1.479400816606358e-05</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.0001984855043701828</v>
+        <v>7.80857681093039e-06</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.001317853573709726</v>
+        <v>1.299812265642686e-05</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.0002397547650616616</v>
+        <v>8.777167749940418e-06</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.001634542713873088</v>
+        <v>4.600231022777734e-06</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.002212210092693567</v>
+        <v>4.14957230532309e-06</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.001733853714540601</v>
+        <v>3.60658741556108e-05</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0004186877049505711</v>
+        <v>2.769657658063807e-05</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.00018385547446087</v>
+        <v>5.607672392216045e-06</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.001657994347624481</v>
+        <v>1.506578337284736e-05</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.001661839429289103</v>
+        <v>9.520420462649781e-06</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.0002155172405764461</v>
+        <v>1.445376528863562e-05</v>
       </c>
       <c r="CS11" t="n">
-        <v>4.994132905267179e-05</v>
+        <v>1.160560532298405e-05</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0004968694411218166</v>
+        <v>1.698667074379046e-05</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.0007782155880704522</v>
+        <v>7.200950676633511e-06</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.0008706150110810995</v>
+        <v>4.885866474069189e-06</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.000605761946644634</v>
+        <v>2.5099579943344e-05</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.003211914096027613</v>
+        <v>1.442533903173171e-05</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0002540727728046477</v>
+        <v>1.724344838294201e-05</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.001154426950961351</v>
+        <v>7.083961918397108e-06</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.001721287961117923</v>
+        <v>1.447127579012886e-05</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.0005162092274986207</v>
+        <v>5.967526703898329e-06</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.001490441267378628</v>
+        <v>1.099840119422879e-05</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.001691950252279639</v>
+        <v>2.958624918392161e-06</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.001963298534974456</v>
+        <v>1.536961826786865e-05</v>
       </c>
       <c r="DF11" t="n">
-        <v>2.574914833530784e-05</v>
+        <v>2.737868271651678e-05</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.004843709524720907</v>
+        <v>3.480198574834503e-05</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.002373033668845892</v>
+        <v>2.569638309068978e-05</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.001804988365620375</v>
+        <v>2.131795190507546e-05</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.006680707447230816</v>
+        <v>7.730853212706279e-06</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.002023653360083699</v>
+        <v>2.167461025237571e-05</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0005042972043156624</v>
+        <v>1.157355200120946e-05</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.0001238096156157553</v>
+        <v>2.143154233635869e-05</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.000574861653149128</v>
+        <v>5.237295226834249e-06</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.0004017558530904353</v>
+        <v>3.8586604205193e-06</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.000181899216840975</v>
+        <v>6.764473255316261e-06</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0006561347981914878</v>
+        <v>1.141325446951669e-05</v>
       </c>
       <c r="DR11" t="n">
-        <v>5.67022361792624e-05</v>
+        <v>1.318760314461542e-05</v>
       </c>
       <c r="DS11" t="n">
-        <v>3.698671935126185e-05</v>
+        <v>5.886571670998819e-06</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.0009431564249098301</v>
+        <v>1.330299164692406e-05</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.003464501351118088</v>
+        <v>9.043822501553223e-06</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0005410305457189679</v>
+        <v>3.453689259913517e-06</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.002381031168624759</v>
+        <v>8.791357686277479e-07</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.001579746836796403</v>
+        <v>1.727053495415021e-05</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.000564607500564307</v>
+        <v>8.273354978882708e-07</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.001174678211100399</v>
+        <v>7.50426079321187e-06</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.001268886728212237</v>
+        <v>4.963885658071376e-06</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.0008902294212020934</v>
+        <v>1.570045697008027e-06</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0002494086802471429</v>
+        <v>8.055161742959172e-06</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.002162350807338953</v>
+        <v>3.548357199179009e-06</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.002374487929046154</v>
+        <v>5.318956937117036e-06</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.0001105599803850055</v>
+        <v>8.406094821111765e-06</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.002332347445189953</v>
+        <v>2.140098149538971e-05</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.003290070919319987</v>
+        <v>1.891264764708467e-05</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.0005363139789551497</v>
+        <v>1.221640741277952e-05</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.001704416703432798</v>
+        <v>3.177410690113902e-07</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.002801450435072184</v>
+        <v>1.443004657630809e-05</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.0005447634612210095</v>
+        <v>1.088829776563216e-05</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.0009644340025261045</v>
+        <v>9.836202252699877e-07</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.0003260090888943523</v>
+        <v>1.952577122210641e-07</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.001074453117325902</v>
+        <v>6.144972303445684e-06</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.000790993741247803</v>
+        <v>1.99332043848699e-05</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.0006422334699891508</v>
+        <v>7.493544217140879e-06</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0006769653409719467</v>
+        <v>2.27049458771944e-05</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.00040074298158288</v>
+        <v>8.389462891500443e-06</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.001437084632925689</v>
+        <v>2.078644683933817e-06</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.0002272080164402723</v>
+        <v>1.076905573427211e-05</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0002330959541723132</v>
+        <v>1.733173667162191e-05</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.003080347087234259</v>
+        <v>5.018475349061191e-06</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.001309796003624797</v>
+        <v>8.418084689765237e-06</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.001145251328125596</v>
+        <v>2.439608942950144e-05</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.003031122963875532</v>
+        <v>7.307601208594861e-06</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.0001063075033016503</v>
+        <v>1.524276194686536e-05</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0009008983033709228</v>
+        <v>7.194532372523099e-06</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0006758507224731147</v>
+        <v>1.38708928716369e-05</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.0003003017627634108</v>
+        <v>1.068201163434424e-05</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.0009251526789739728</v>
+        <v>5.278940989228431e-06</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.002569080796092749</v>
+        <v>7.375995664915536e-06</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.0004231612256262451</v>
+        <v>4.141790668654721e-06</v>
       </c>
       <c r="FH11" t="n">
-        <v>8.690229151397943e-06</v>
+        <v>2.888103381337714e-06</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.005364865064620972</v>
+        <v>1.72417003341252e-06</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.001837904215790331</v>
+        <v>3.213664604118094e-05</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.001365542644634843</v>
+        <v>5.473827968671685e-06</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.0008504905854351819</v>
+        <v>1.607970261829905e-05</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.0002723492216318846</v>
+        <v>5.827422683069017e-06</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.002492845524102449</v>
+        <v>1.072105260391254e-05</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.0008185148471966386</v>
+        <v>7.558153811260127e-06</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.001692011253908277</v>
+        <v>9.132190825766884e-06</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.004121726378798485</v>
+        <v>3.214669413864613e-05</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.00266720075160265</v>
+        <v>1.259089276572922e-05</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.001185078639537096</v>
+        <v>3.62493701686617e-05</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.003432496916502714</v>
+        <v>7.191817985585658e-06</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.0007023449870757759</v>
+        <v>1.15235516204848e-05</v>
       </c>
       <c r="FV11" t="n">
-        <v>9.918190698954277e-06</v>
+        <v>5.009233063901775e-07</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.000206754426471889</v>
+        <v>4.821712991542881e-06</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.004058968275785446</v>
+        <v>8.5808887888561e-06</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.001027239253744483</v>
+        <v>2.249158387712669e-05</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.0009357967646792531</v>
+        <v>1.157637416326907e-05</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.003461145563051105</v>
+        <v>7.0425849116873e-06</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.003711425000801682</v>
+        <v>1.002962449092593e-06</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.002678548917174339</v>
+        <v>2.15685158764245e-05</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.001360434805974364</v>
+        <v>1.8210432244814e-05</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.001174196833744645</v>
+        <v>5.146900366526097e-05</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.002998959273099899</v>
+        <v>9.74598151515238e-06</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.004009216092526913</v>
+        <v>8.690360118634999e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01109076663851738</v>
+        <v>0.0002569261705502868</v>
       </c>
       <c r="B12" t="n">
-        <v>0.001434493926353753</v>
+        <v>0.006609692703932524</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008829964324831963</v>
+        <v>0.0003868931089527905</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003601615084335208</v>
+        <v>0.003458371385931969</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001055915257893503</v>
+        <v>0.004219986032694578</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001736004836857319</v>
+        <v>0.002607082715258002</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002117821481078863</v>
+        <v>0.001064754789695144</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002149933250620961</v>
+        <v>2.600416337372735e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003868757048621774</v>
+        <v>0.000711263797711581</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01006051804870367</v>
+        <v>9.420950664207339e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001562630757689476</v>
+        <v>0.005549685098230839</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008430486544966698</v>
+        <v>0.0005834503099322319</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00254478701390326</v>
+        <v>0.0006709636654704809</v>
       </c>
       <c r="N12" t="n">
-        <v>0.002569065662100911</v>
+        <v>0.002668990520760417</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001991164870560169</v>
+        <v>0.001524658990092576</v>
       </c>
       <c r="P12" t="n">
-        <v>0.002969574648886919</v>
+        <v>0.001884516561403871</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001998299499973655</v>
+        <v>0.001169559196569026</v>
       </c>
       <c r="R12" t="n">
-        <v>0.00491556478664279</v>
+        <v>0.0002350172726437449</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0006683073588646948</v>
+        <v>0.0001475644967285916</v>
       </c>
       <c r="T12" t="n">
-        <v>0.002723777899518609</v>
+        <v>0.0003211298317182809</v>
       </c>
       <c r="U12" t="n">
-        <v>1.959511610039044e-05</v>
+        <v>4.093526513315737e-06</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0004968757857568562</v>
+        <v>0.001111340476199985</v>
       </c>
       <c r="W12" t="n">
-        <v>0.002051474759355187</v>
+        <v>2.013956509472337e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0004159066593274474</v>
+        <v>0.0004561323439702392</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0001226014428539202</v>
+        <v>0.0007679261034354568</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.002221832051873207</v>
+        <v>0.0003369658952578902</v>
       </c>
       <c r="AA12" t="n">
-        <v>4.865549271926284e-06</v>
+        <v>0.0009691821760497987</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0001521397934993729</v>
+        <v>0.000181459472514689</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0006234010215848684</v>
+        <v>3.296618524473161e-05</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0004207075980957597</v>
+        <v>0.0007585816783830523</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.001314128283411264</v>
+        <v>0.001529120723716915</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.752506406977773e-05</v>
+        <v>0.0008340721833519638</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0001277737610507756</v>
+        <v>0.0006832614308223128</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.001042478019371629</v>
+        <v>4.02159639634192e-06</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.001854654285125434</v>
+        <v>0.001134496182203293</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.001434391713701189</v>
+        <v>0.0007633311324752867</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.002186447149142623</v>
+        <v>0.0003023351600859314</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.002380875870585442</v>
+        <v>0.001164352521300316</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.001310244901105762</v>
+        <v>0.0003742194676306099</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.001939383568242192</v>
+        <v>0.000205071090022102</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.00136227416805923</v>
+        <v>0.0001040686765918508</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0009441163274459541</v>
+        <v>0.0007963345851749182</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4.64254007965792e-05</v>
+        <v>0.0002224900235887617</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.000270767486654222</v>
+        <v>0.0006336114602163434</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.0004407684318721294</v>
+        <v>0.0005959105328656733</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.005129803437739611</v>
+        <v>0.0009227620321325958</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.001855349517427385</v>
+        <v>0.00344483251683414</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.005095507018268108</v>
+        <v>6.589319673366845e-05</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0002826536074280739</v>
+        <v>0.003229051828384399</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0007718772394582629</v>
+        <v>0.002787889679893851</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0006051217205822468</v>
+        <v>0.0015931345988065</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.001768881687894464</v>
+        <v>0.001227445434778929</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.004044982604682446</v>
+        <v>0.0005417055217549205</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.001292667933739722</v>
+        <v>0.001255253911949694</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.002640584483742714</v>
+        <v>0.0006799602415412664</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.001577723305672407</v>
+        <v>0.0009882657323032618</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.002422027289867401</v>
+        <v>0.0007962660165503621</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.00045964345918037</v>
+        <v>0.0002827342832460999</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.0007283829618245363</v>
+        <v>0.00229259766638279</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.0009585574734956026</v>
+        <v>0.0009093203698284924</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.001563969999551773</v>
+        <v>0.0002017795341089368</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.00253092055208981</v>
+        <v>0.001354760606773198</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.0009527751826681197</v>
+        <v>0.0006865714676678181</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.00113231863360852</v>
+        <v>0.0003023807075805962</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.910116407088935e-05</v>
+        <v>0.0005953463260084391</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.001555187394842505</v>
+        <v>0.0005496347439475358</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0003158305771648884</v>
+        <v>0.0001803446793928742</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.003012100933119655</v>
+        <v>0.001652097445912659</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0006661321967840195</v>
+        <v>0.0004579156229738146</v>
       </c>
       <c r="BR12" t="n">
-        <v>4.663836443796754e-05</v>
+        <v>7.308961357921362e-05</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.0006557218730449677</v>
+        <v>0.001087880460545421</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.0002497362438589334</v>
+        <v>0.0001271529035875574</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.004083290230482817</v>
+        <v>0.0008739802287891507</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.0005946509772911668</v>
+        <v>0.002418086165562272</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.002165010664612055</v>
+        <v>0.0001677167892921716</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.001941540045663714</v>
+        <v>0.001197055680677295</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.001660390640608966</v>
+        <v>0.001256694085896015</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.001728013856336474</v>
+        <v>0.000308571383357048</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.0001061783696059138</v>
+        <v>0.0006697450298815966</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.002460313960909843</v>
+        <v>0.0001812439295463264</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.0009128133533522487</v>
+        <v>0.0008847461431287229</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.002244354924187064</v>
+        <v>0.0001967746502486989</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.001570662017911673</v>
+        <v>0.0006596976309083402</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.001764819258823991</v>
+        <v>0.0002986209001392126</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.0008153731469064951</v>
+        <v>0.0007419812027364969</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.000254809157922864</v>
+        <v>0.0002263757487526163</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.0007076699985191226</v>
+        <v>0.0004389882378745824</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0003936749417334795</v>
+        <v>1.316500856773928e-05</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.0001153177581727505</v>
+        <v>0.0002326960093341768</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.0003502315666992217</v>
+        <v>0.0007037990726530552</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.000820885063149035</v>
+        <v>3.513004776323214e-05</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.001208768342621624</v>
+        <v>0.0009739127708598971</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0005999205750413239</v>
+        <v>0.0002735346206463873</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.000927157117985189</v>
+        <v>0.001629626727662981</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.003534854622557759</v>
+        <v>0.0003141250344924629</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0003376064414624125</v>
+        <v>0.001412756624631584</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.001689331722445786</v>
+        <v>0.001880883355624974</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.000745023600757122</v>
+        <v>0.0008602262823842466</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.001162453088909388</v>
+        <v>0.0002640191523823887</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.002213573083281517</v>
+        <v>1.959348446689546e-05</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.001180644729174674</v>
+        <v>0.0007867297972552478</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.001752801355905831</v>
+        <v>0.0004174627247266471</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.0005095406668260694</v>
+        <v>0.001008506747893989</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.001174367498606443</v>
+        <v>0.0003973670827690512</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.0005960559938102961</v>
+        <v>0.0007277937838807702</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.0002630972303450108</v>
+        <v>0.0002362709783483297</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.0003368690377101302</v>
+        <v>0.0003325887955725193</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.0002808012068271637</v>
+        <v>0.0005996170802973211</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.0005743686924688518</v>
+        <v>0.0002848543517757207</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.004624398425221443</v>
+        <v>0.001192907686345279</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.0009729911107569933</v>
+        <v>0.0006877155392430723</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.001036944449879229</v>
+        <v>0.004482119344174862</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.0008965033339336514</v>
+        <v>0.00311884842813015</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.00161250657401979</v>
+        <v>0.00019127553969156</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.0003412482910789549</v>
+        <v>0.001670649275183678</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.0002863369882106781</v>
+        <v>0.002291039098054171</v>
       </c>
       <c r="DM12" t="n">
-        <v>7.380126044154167e-05</v>
+        <v>0.0003591579152271152</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.000104426231700927</v>
+        <v>0.0008034365018829703</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.002285678870975971</v>
+        <v>0.0006339155370369554</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.0002497410168871284</v>
+        <v>0.001695057027973235</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.000262234709225595</v>
+        <v>0.0004495966713875532</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0002178079448640347</v>
+        <v>0.0003095737774856389</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.001236428390257061</v>
+        <v>0.0004400762263685465</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.0007756741833873093</v>
+        <v>0.0003914905246347189</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0004116134368814528</v>
+        <v>0.0005257531302049756</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.0005537476972676814</v>
+        <v>0.000858072133269161</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.0002359143836656585</v>
+        <v>0.0003877375565934926</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.0008034019847400486</v>
+        <v>0.0002108268818119541</v>
       </c>
       <c r="DY12" t="n">
-        <v>7.237316458486021e-05</v>
+        <v>0.001275389455258846</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.0004273824451956898</v>
+        <v>0.0007161450921557844</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.002558242296800017</v>
+        <v>4.300443833926693e-05</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.001186635810881853</v>
+        <v>0.0004700307326857001</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.0001535788760520518</v>
+        <v>0.0003089249366894364</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.001419932465068996</v>
+        <v>0.0007509382558055222</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.0004330805095378309</v>
+        <v>0.0005121993599459529</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.003180264495313168</v>
+        <v>0.0006754892528988421</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.00180893437936902</v>
+        <v>0.0004915582248941064</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.001672136946581304</v>
+        <v>0.0007284729508683085</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.000864323927089572</v>
+        <v>0.0001058279376593418</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.001097575295716524</v>
+        <v>0.001096469117328525</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.001426281174644828</v>
+        <v>0.0008667883812449872</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.000598397571593523</v>
+        <v>6.838163244538009e-06</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.001392913050949574</v>
+        <v>3.77084688807372e-05</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.000705293845385313</v>
+        <v>0.0002441265678498894</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.000650705536827445</v>
+        <v>0.0001380201574647799</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.001218822784721851</v>
+        <v>5.678088928107172e-05</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.0007557444041594863</v>
+        <v>0.0004279576824046671</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.001208362751640379</v>
+        <v>0.0005158220883458853</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.001370425568893552</v>
+        <v>0.0002062892453977838</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.0008734021103009582</v>
+        <v>0.001193783595226705</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.00148252968210727</v>
+        <v>0.0005463977577164769</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.0009681832161732018</v>
+        <v>0.0007331525557674468</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.000803101749625057</v>
+        <v>0.0003036496927961707</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.002261596033349633</v>
+        <v>9.617819159757346e-05</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.001004990772344172</v>
+        <v>0.0007178717060014606</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.001863160636276007</v>
+        <v>0.0001502101367805153</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0005059317336417735</v>
+        <v>0.0008447320433333516</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.0004371544637251645</v>
+        <v>4.647307650884613e-05</v>
       </c>
       <c r="FC12" t="n">
-        <v>7.807956717442721e-05</v>
+        <v>0.0004555926716420799</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.000327608926454559</v>
+        <v>0.0001777716825017706</v>
       </c>
       <c r="FE12" t="n">
-        <v>5.068606697022915e-06</v>
+        <v>0.0002149122592527419</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.0004395997384563088</v>
+        <v>0.0007592440233565867</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.002083064755424857</v>
+        <v>0.0002091462374664843</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.001075690612196922</v>
+        <v>0.001049558748491108</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.001572263776324689</v>
+        <v>0.0001149099334725179</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.002087537664920092</v>
+        <v>0.001130390679463744</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.000930836598854512</v>
+        <v>0.0007074701134115458</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.0006753685302101076</v>
+        <v>0.0001406096271239221</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.0002720669144764543</v>
+        <v>2.023667911998928e-05</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.0004872814170084894</v>
+        <v>0.0008960529812611639</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.0005137597327120602</v>
+        <v>0.000243592745391652</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.0003165337257087231</v>
+        <v>0.0001701656437944621</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.003909330815076828</v>
+        <v>0.001404424314387143</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.0009709987207315862</v>
+        <v>0.0001280395808862522</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.00186513748485595</v>
+        <v>0.001726935617625713</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.001092572929337621</v>
+        <v>0.001429514726623893</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.000889201124664396</v>
+        <v>0.000501857022754848</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0004281438305042684</v>
+        <v>0.000469266640720889</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0003070906095672399</v>
+        <v>0.0001706622715573758</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0002244867064291611</v>
+        <v>4.445447120815516e-05</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.001017946866340935</v>
+        <v>0.0002707119565457106</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.001653332030400634</v>
+        <v>2.681260230019689e-05</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.0003298188676126301</v>
+        <v>0.0002885188441723585</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.002292387187480927</v>
+        <v>0.001355539541691542</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.001207106164656579</v>
+        <v>0.001523201819509268</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.001670331577770412</v>
+        <v>0.0001835169969126582</v>
       </c>
       <c r="GE12" t="n">
-        <v>9.816193778533489e-05</v>
+        <v>0.002024527406319976</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.0005687164375558496</v>
+        <v>0.0003634050954133272</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.0003325841389596462</v>
+        <v>5.472945485962555e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.01235734671354294</v>
+        <v>0.02023665234446526</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003063774202018976</v>
+        <v>0.292483925819397</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01179777085781097</v>
+        <v>0.00708004692569375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002479078248143196</v>
+        <v>0.1481190323829651</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004381055478006601</v>
+        <v>0.03883581608533859</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001658499822951853</v>
+        <v>0.2278710603713989</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002024272689595819</v>
+        <v>0.009451810270547867</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001583476550877094</v>
+        <v>0.1025386825203896</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002647244604304433</v>
+        <v>0.01339906267821789</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01201980840414762</v>
+        <v>0.05653790012001991</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001738932565785944</v>
+        <v>0.2734870910644531</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01362873427569866</v>
+        <v>0.005916742607951164</v>
       </c>
       <c r="M13" t="n">
-        <v>0.000487650977447629</v>
+        <v>0.1047808080911636</v>
       </c>
       <c r="N13" t="n">
-        <v>0.000503223855048418</v>
+        <v>0.007402054499834776</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002703950274735689</v>
+        <v>0.2180362641811371</v>
       </c>
       <c r="P13" t="n">
-        <v>0.003423967398703098</v>
+        <v>0.009011683985590935</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0006581907509826124</v>
+        <v>0.04233106225728989</v>
       </c>
       <c r="R13" t="n">
-        <v>0.003757058177143335</v>
+        <v>0.008692416362464428</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0006400070269592106</v>
+        <v>0.01394344214349985</v>
       </c>
       <c r="T13" t="n">
-        <v>0.001739800907671452</v>
+        <v>0.0238085612654686</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001242764294147491</v>
+        <v>0.02578062005341053</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0006882034940645099</v>
+        <v>0.03893642872571945</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0009815790690481663</v>
+        <v>0.06700211018323898</v>
       </c>
       <c r="X13" t="n">
-        <v>0.001918095396831632</v>
+        <v>0.02400580234825611</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0008406537817791104</v>
+        <v>0.02178364619612694</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001649045269005001</v>
+        <v>0.06639008969068527</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0005582165904343128</v>
+        <v>0.04126325994729996</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0001476270554121584</v>
+        <v>0.004982225596904755</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0004950271686539054</v>
+        <v>0.011800785548985</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0007133763283491135</v>
+        <v>0.007169472053647041</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.001959552057087421</v>
+        <v>0.01238104980438948</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0001903741504065692</v>
+        <v>0.01525192707777023</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0006614368176087737</v>
+        <v>0.01654581539332867</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0006294870399869978</v>
+        <v>0.01803364977240562</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.003173843491822481</v>
+        <v>0.01741924695670605</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.001969771226868033</v>
+        <v>0.01346874423325062</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.002854332095012069</v>
+        <v>0.02448061481118202</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.00184434768743813</v>
+        <v>0.05435999855399132</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.001328927581198514</v>
+        <v>0.003185253590345383</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.002254467690363526</v>
+        <v>0.009922495111823082</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0002255055296700448</v>
+        <v>0.0008295127190649509</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.000766812649089843</v>
+        <v>0.03444091230630875</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0002570658107288182</v>
+        <v>0.004564476665109396</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.001350762089714408</v>
+        <v>0.01689633727073669</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0003370565536897629</v>
+        <v>0.03104422055184841</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.005603955127298832</v>
+        <v>0.04319792985916138</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.00123624294064939</v>
+        <v>0.2123278677463531</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.006095434539020061</v>
+        <v>0.007510749623179436</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.002387286862358451</v>
+        <v>0.0579601563513279</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.001410202705301344</v>
+        <v>0.0213102400302887</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.002207630779594183</v>
+        <v>0.119969367980957</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0008529732585884631</v>
+        <v>0.03461265563964844</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0003329371684230864</v>
+        <v>0.02722866088151932</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0004991600289940834</v>
+        <v>0.07038221508264542</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.001885650563053787</v>
+        <v>0.02555045858025551</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0008412970346398652</v>
+        <v>0.04705157876014709</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.00325518473982811</v>
+        <v>0.05751384049654007</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0003017818671651185</v>
+        <v>0.001180743798613548</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.004122515209019184</v>
+        <v>0.03977224603295326</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.00167722487822175</v>
+        <v>0.06932011991739273</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.002009483054280281</v>
+        <v>0.02217846736311913</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.00148972007445991</v>
+        <v>0.0240033958107233</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0006671070586889982</v>
+        <v>0.01801223307847977</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0007533739553764462</v>
+        <v>6.07944093644619e-05</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.001723489025607705</v>
+        <v>0.05999037250876427</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.002027918351814151</v>
+        <v>0.01013457030057907</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0009718000655993819</v>
+        <v>0.01626478508114815</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.003213525749742985</v>
+        <v>0.004296740982681513</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.001595422625541687</v>
+        <v>0.0021707892883569</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.001070401398465037</v>
+        <v>0.02330923266708851</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.001751636620610952</v>
+        <v>0.01446696370840073</v>
       </c>
       <c r="BT13" t="n">
-        <v>2.7944624889642e-06</v>
+        <v>0.01026926655322313</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.005153545644134283</v>
+        <v>0.01858248189091682</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0005498115788213909</v>
+        <v>0.1120768263936043</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.002546288771554828</v>
+        <v>0.02150421030819416</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0008860118687152863</v>
+        <v>0.04431009665131569</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.001828193780966103</v>
+        <v>0.02744794078171253</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.000718718278221786</v>
+        <v>0.05089700594544411</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.00111619452945888</v>
+        <v>0.01508958823978901</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0005682160262949765</v>
+        <v>0.002004137262701988</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.001774825854226947</v>
+        <v>0.04625633358955383</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.002630975097417831</v>
+        <v>0.0002628173679113388</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.002993667032569647</v>
+        <v>0.04009556397795677</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.002307321410626173</v>
+        <v>0.02793374285101891</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0002393549657426775</v>
+        <v>0.0193618256598711</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0002776653273031116</v>
+        <v>0.008232364431023598</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0009060480515472591</v>
+        <v>0.03524017333984375</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0002497262903489172</v>
+        <v>0.02036489173769951</v>
       </c>
       <c r="CK13" t="n">
-        <v>5.282938946038485e-05</v>
+        <v>0.01557517237961292</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0003101561742369086</v>
+        <v>0.02525391988456249</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0008265416836366057</v>
+        <v>0.06413847208023071</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.0001247805048478767</v>
+        <v>0.01272742636501789</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0001774258562363684</v>
+        <v>0.00668724812567234</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.001067113829776645</v>
+        <v>0.05052947998046875</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.002472005784511566</v>
+        <v>0.004549416713416576</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0004749524523504078</v>
+        <v>0.007799237035214901</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0006052838289178908</v>
+        <v>0.05812123417854309</v>
       </c>
       <c r="CT13" t="n">
-        <v>9.712198516353965e-05</v>
+        <v>0.05391817539930344</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0001098710927180946</v>
+        <v>0.01043883431702852</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.002342440653592348</v>
+        <v>0.0009416760876774788</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.002725134836509824</v>
+        <v>0.03571484610438347</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.002665092702955008</v>
+        <v>0.02421785518527031</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0004206784360576421</v>
+        <v>0.0353582426905632</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.001638004090636969</v>
+        <v>0.0107139041647315</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.001282246317714453</v>
+        <v>0.03668152168393135</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0002966162574011832</v>
+        <v>0.02125009894371033</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0003749348397832364</v>
+        <v>0.02972018532454967</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0001670023339102045</v>
+        <v>0.01393593475222588</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.001110406708903611</v>
+        <v>0.008743803948163986</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.007015938870608807</v>
+        <v>0.01422584056854248</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.002301927655935287</v>
+        <v>0.009145039133727551</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0007246042951010168</v>
+        <v>0.1083380952477455</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.001679999753832817</v>
+        <v>0.05626196786761284</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.00198708102107048</v>
+        <v>0.03664886578917503</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.001914999331347644</v>
+        <v>0.0003624125383794308</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.0006466201739385724</v>
+        <v>0.0464673638343811</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0003456197737250477</v>
+        <v>0.02717494778335094</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0004596592334564775</v>
+        <v>0.004652342293411493</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.003285413142293692</v>
+        <v>0.0008728886023163795</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0006577668827958405</v>
+        <v>0.02266917936503887</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0003358664689585567</v>
+        <v>0.001039465889334679</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0007733114180155098</v>
+        <v>0.005997548811137676</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0008033408084884286</v>
+        <v>0.008676251396536827</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0001059860805980861</v>
+        <v>0.002582381013780832</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0003929383237846196</v>
+        <v>0.00330926850438118</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0007838184246793389</v>
+        <v>0.02385660074651241</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.00158408097922802</v>
+        <v>0.0007070107385516167</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.001481354469433427</v>
+        <v>0.03260188922286034</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0006180666387081146</v>
+        <v>0.02572822384536266</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.001409309799782932</v>
+        <v>0.01183806359767914</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.001113497768528759</v>
+        <v>0.002768405247479677</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0001787926885299385</v>
+        <v>0.01771574653685093</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0008045031572692096</v>
+        <v>0.002267822623252869</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.00134145119227469</v>
+        <v>0.003897102084010839</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.000155195637489669</v>
+        <v>0.01626854762434959</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.003937932197004557</v>
+        <v>0.0177092682570219</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0019776017870754</v>
+        <v>0.04576597362756729</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.002541668014600873</v>
+        <v>0.01463432516902685</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0006004299502819777</v>
+        <v>0.01107825711369514</v>
       </c>
       <c r="EJ13" t="n">
-        <v>1.927372068166733e-05</v>
+        <v>0.003351270221173763</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.003037343034520745</v>
+        <v>0.02215087972581387</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0003528398519847542</v>
+        <v>0.02014325000345707</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.001900986884720623</v>
+        <v>0.008368423208594322</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.00135907472576946</v>
+        <v>0.0127155464142561</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.001233747927471995</v>
+        <v>0.0004197601228952408</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.00221310299821198</v>
+        <v>0.02099652588367462</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0005731659475713968</v>
+        <v>0.02553407661616802</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0002863220870494843</v>
+        <v>0.02960816398262978</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.001763418666087091</v>
+        <v>0.01975108310580254</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0009225212852470577</v>
+        <v>0.03215945512056351</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0003583184152375907</v>
+        <v>0.05010540038347244</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0004945290274918079</v>
+        <v>0.08045644313097</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0006286423886194825</v>
+        <v>0.008311638608574867</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.002488499041646719</v>
+        <v>0.006566582713276148</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.002445628866553307</v>
+        <v>0.03411320224404335</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.002434253692626953</v>
+        <v>0.01974849216639996</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0001903999072965235</v>
+        <v>0.02349472418427467</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.001281489385291934</v>
+        <v>0.00770418718457222</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0002971870126202703</v>
+        <v>0.03052231669425964</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0002358190395170823</v>
+        <v>0.03587422892451286</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.000366958265658468</v>
+        <v>0.02098602429032326</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0005818554200232029</v>
+        <v>0.02619985491037369</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.001045923447236419</v>
+        <v>0.01223727501928806</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.001012974535115063</v>
+        <v>0.01259662676602602</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.003108473960310221</v>
+        <v>0.02567204274237156</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.002686327323317528</v>
+        <v>0.04128187149763107</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0004066194815095514</v>
+        <v>0.008640616200864315</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.001471993047744036</v>
+        <v>0.01895955577492714</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0001888750412035733</v>
+        <v>0.002317844424396753</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0006502257310785353</v>
+        <v>0.02321543544530869</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0002734638401307166</v>
+        <v>0.0205408725887537</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.001944422954693437</v>
+        <v>0.0225664246827364</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.0057607376947999</v>
+        <v>0.04575827717781067</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.001484546693973243</v>
+        <v>0.03729543834924698</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0009870813228189945</v>
+        <v>0.01037292089313269</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.001028230064548552</v>
+        <v>0.005012751556932926</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.001580126117914915</v>
+        <v>0.01237049698829651</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0003375696251168847</v>
+        <v>0.03562486916780472</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0008769738487899303</v>
+        <v>0.006678466219455004</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0005675427382811904</v>
+        <v>0.01782098785042763</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.00180660979822278</v>
+        <v>0.05956649035215378</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.001547411549836397</v>
+        <v>0.01710194535553455</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.001320092240348458</v>
+        <v>0.03143071383237839</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0003289773594588041</v>
+        <v>0.01636368595063686</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.002170071937143803</v>
+        <v>0.01384407468140125</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0001611947373021394</v>
+        <v>0.02384742721915245</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.0008305888622999191</v>
+        <v>0.1185244619846344</v>
       </c>
       <c r="GF13" t="n">
-        <v>1.576947397552431e-05</v>
+        <v>0.002317036502063274</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.001191286835819483</v>
+        <v>0.009340224787592888</v>
       </c>
     </row>
     <row r="14">
@@ -8970,571 +8970,571 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0001501883671153337</v>
+        <v>3.138248939649202e-05</v>
       </c>
       <c r="B16" t="n">
-        <v>9.312705515185371e-06</v>
+        <v>0.0004674282972700894</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001732176751829684</v>
+        <v>1.84515356522752e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>4.521342634689063e-05</v>
+        <v>9.859175042947754e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>7.796785939717665e-05</v>
+        <v>0.0001134976846515201</v>
       </c>
       <c r="F16" t="n">
-        <v>1.059418536897283e-05</v>
+        <v>0.0001523977553006262</v>
       </c>
       <c r="G16" t="n">
-        <v>4.044284287374467e-05</v>
+        <v>7.015273877186701e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>2.95218651444884e-05</v>
+        <v>7.044524681987241e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>5.360159411793575e-05</v>
+        <v>8.509832696290687e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001433206343790516</v>
+        <v>4.640034239855595e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>1.348845034954138e-05</v>
+        <v>0.0004271079087629914</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001876697642728686</v>
+        <v>4.93716606797534e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>1.504268129792763e-05</v>
+        <v>6.537375884363428e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>1.938732748385519e-05</v>
+        <v>1.500888356531505e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.777622310328297e-05</v>
+        <v>0.0001145301430369727</v>
       </c>
       <c r="P16" t="n">
-        <v>3.716896389960311e-05</v>
+        <v>3.704111077240668e-05</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.996244024368934e-05</v>
+        <v>2.368117566220462e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>6.907880015205592e-05</v>
+        <v>0.0001022789947455749</v>
       </c>
       <c r="S16" t="n">
-        <v>1.814764573282446e-06</v>
+        <v>1.647205499466509e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>4.319489016779698e-05</v>
+        <v>4.795105633093044e-05</v>
       </c>
       <c r="U16" t="n">
-        <v>3.570240096451016e-06</v>
+        <v>1.106344825529959e-05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.124046139011625e-05</v>
+        <v>3.247761924285442e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>6.695615866192384e-07</v>
+        <v>5.132056685397401e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>7.281421858351678e-06</v>
+        <v>2.091487476718612e-05</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.455887922929833e-05</v>
+        <v>9.27486689761281e-06</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.064004340558313e-05</v>
+        <v>8.26104442239739e-05</v>
       </c>
       <c r="AA16" t="n">
-        <v>3.6740098039445e-06</v>
+        <v>3.532338450895622e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>4.400868874654407e-06</v>
+        <v>3.57317621819675e-05</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.16314367915038e-06</v>
+        <v>3.900178489857353e-05</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.02948603045661e-06</v>
+        <v>1.492733645136468e-06</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.810279693221673e-05</v>
+        <v>2.117851545335725e-05</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.944451448973268e-07</v>
+        <v>8.823926691547967e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4.394727966428036e-06</v>
+        <v>1.130541113525396e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.24116440929356e-05</v>
+        <v>1.289843658014433e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>5.24120987392962e-05</v>
+        <v>1.258235624845838e-05</v>
       </c>
       <c r="AJ16" t="n">
-        <v>4.642491330741905e-05</v>
+        <v>1.621904084458947e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.357820241944864e-05</v>
+        <v>7.208008173620328e-05</v>
       </c>
       <c r="AL16" t="n">
-        <v>4.113682371098548e-05</v>
+        <v>4.364281267044134e-05</v>
       </c>
       <c r="AM16" t="n">
-        <v>2.077116005239077e-05</v>
+        <v>1.680937748460565e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.693271355587058e-05</v>
+        <v>3.672427919809707e-05</v>
       </c>
       <c r="AO16" t="n">
-        <v>6.97081259204424e-06</v>
+        <v>3.540526449796744e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>4.791934316017432e-06</v>
+        <v>3.283255864516832e-05</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7.156971264521417e-07</v>
+        <v>3.189086419297382e-05</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.777206489350647e-05</v>
+        <v>6.655404376942897e-06</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.370296670051175e-06</v>
+        <v>3.105169162154198e-05</v>
       </c>
       <c r="AT16" t="n">
-        <v>6.749255408067256e-05</v>
+        <v>9.324645361630246e-06</v>
       </c>
       <c r="AU16" t="n">
-        <v>3.331802145112306e-05</v>
+        <v>0.000269425188889727</v>
       </c>
       <c r="AV16" t="n">
-        <v>9.064076584763825e-05</v>
+        <v>4.745617479784414e-05</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.247849599574693e-05</v>
+        <v>2.099163612001576e-05</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.80380128667457e-06</v>
+        <v>1.813910603232216e-05</v>
       </c>
       <c r="AY16" t="n">
-        <v>5.505719673237763e-05</v>
+        <v>6.587333336938173e-05</v>
       </c>
       <c r="AZ16" t="n">
-        <v>1.995605998672545e-05</v>
+        <v>0.000108918291516602</v>
       </c>
       <c r="BA16" t="n">
-        <v>2.821253292495385e-05</v>
+        <v>3.516376818879507e-05</v>
       </c>
       <c r="BB16" t="n">
-        <v>2.33559785556281e-06</v>
+        <v>4.094075484317727e-05</v>
       </c>
       <c r="BC16" t="n">
-        <v>2.077551107504405e-05</v>
+        <v>5.504552973434329e-06</v>
       </c>
       <c r="BD16" t="n">
-        <v>7.552482657047221e-07</v>
+        <v>9.125848009716719e-05</v>
       </c>
       <c r="BE16" t="n">
-        <v>5.386761404224671e-05</v>
+        <v>7.616265793330967e-05</v>
       </c>
       <c r="BF16" t="n">
-        <v>4.670774160331348e-06</v>
+        <v>2.388024222454987e-05</v>
       </c>
       <c r="BG16" t="n">
-        <v>4.209262988297269e-05</v>
+        <v>7.753930549370125e-05</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.675254679867066e-05</v>
+        <v>6.391495844582096e-05</v>
       </c>
       <c r="BI16" t="n">
-        <v>4.431236811797135e-05</v>
+        <v>1.285942198592238e-05</v>
       </c>
       <c r="BJ16" t="n">
-        <v>2.10892831091769e-05</v>
+        <v>4.329023795435205e-05</v>
       </c>
       <c r="BK16" t="n">
-        <v>1.32719287648797e-05</v>
+        <v>8.994501695269719e-05</v>
       </c>
       <c r="BL16" t="n">
-        <v>7.370436833298299e-06</v>
+        <v>2.400615812803153e-05</v>
       </c>
       <c r="BM16" t="n">
-        <v>9.967292498913594e-06</v>
+        <v>5.321974094840698e-05</v>
       </c>
       <c r="BN16" t="n">
-        <v>3.301270771771669e-05</v>
+        <v>1.189045906357933e-05</v>
       </c>
       <c r="BO16" t="n">
-        <v>4.776979949383531e-06</v>
+        <v>2.611793570395093e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>2.996650619024877e-05</v>
+        <v>2.094975207000971e-05</v>
       </c>
       <c r="BQ16" t="n">
-        <v>6.935257715667831e-06</v>
+        <v>2.528547156543937e-06</v>
       </c>
       <c r="BR16" t="n">
-        <v>1.340555172646418e-05</v>
+        <v>3.189599374309182e-05</v>
       </c>
       <c r="BS16" t="n">
-        <v>3.10122049995698e-05</v>
+        <v>7.262952749442775e-06</v>
       </c>
       <c r="BT16" t="n">
-        <v>8.698175406607334e-07</v>
+        <v>1.226696986122988e-05</v>
       </c>
       <c r="BU16" t="n">
-        <v>6.124242645455524e-05</v>
+        <v>8.889940545486752e-06</v>
       </c>
       <c r="BV16" t="n">
-        <v>1.017183876683703e-05</v>
+        <v>0.0001623938733246177</v>
       </c>
       <c r="BW16" t="n">
-        <v>3.762178675970063e-05</v>
+        <v>1.979682929231785e-05</v>
       </c>
       <c r="BX16" t="n">
-        <v>2.382294769631699e-05</v>
+        <v>2.190635859733447e-05</v>
       </c>
       <c r="BY16" t="n">
-        <v>2.850426244549453e-05</v>
+        <v>1.934121246449649e-05</v>
       </c>
       <c r="BZ16" t="n">
-        <v>1.03472684713779e-05</v>
+        <v>1.399740449414821e-05</v>
       </c>
       <c r="CA16" t="n">
-        <v>3.959882633353118e-06</v>
+        <v>1.388095734000672e-05</v>
       </c>
       <c r="CB16" t="n">
-        <v>1.617753923710552e-06</v>
+        <v>4.434243237483315e-06</v>
       </c>
       <c r="CC16" t="n">
-        <v>3.068495425395668e-05</v>
+        <v>1.665482886892278e-05</v>
       </c>
       <c r="CD16" t="n">
-        <v>3.149039912386797e-05</v>
+        <v>2.151394801330753e-05</v>
       </c>
       <c r="CE16" t="n">
-        <v>3.543206548783928e-05</v>
+        <v>7.83202558523044e-05</v>
       </c>
       <c r="CF16" t="n">
-        <v>3.741343971341848e-05</v>
+        <v>1.510391120973509e-05</v>
       </c>
       <c r="CG16" t="n">
-        <v>5.7772181207838e-06</v>
+        <v>9.343822057417128e-06</v>
       </c>
       <c r="CH16" t="n">
-        <v>6.849526926089311e-06</v>
+        <v>1.680721106822602e-05</v>
       </c>
       <c r="CI16" t="n">
-        <v>1.53797536768252e-05</v>
+        <v>1.100118333852151e-05</v>
       </c>
       <c r="CJ16" t="n">
-        <v>7.131844540708698e-06</v>
+        <v>2.88691844616551e-05</v>
       </c>
       <c r="CK16" t="n">
-        <v>7.806758731021546e-06</v>
+        <v>8.916804290493019e-06</v>
       </c>
       <c r="CL16" t="n">
-        <v>2.598883384052897e-06</v>
+        <v>2.067757304757833e-05</v>
       </c>
       <c r="CM16" t="n">
-        <v>3.177744702043128e-06</v>
+        <v>0.0001113506004912779</v>
       </c>
       <c r="CN16" t="n">
-        <v>3.762835694942623e-05</v>
+        <v>2.163501812901814e-05</v>
       </c>
       <c r="CO16" t="n">
-        <v>1.171142594103003e-05</v>
+        <v>2.510461490601301e-05</v>
       </c>
       <c r="CP16" t="n">
-        <v>1.509497906226898e-05</v>
+        <v>0.0001419416221324354</v>
       </c>
       <c r="CQ16" t="n">
-        <v>2.004083944484591e-05</v>
+        <v>6.459512951551005e-05</v>
       </c>
       <c r="CR16" t="n">
-        <v>9.178981599688996e-06</v>
+        <v>0.0001039735288941301</v>
       </c>
       <c r="CS16" t="n">
-        <v>5.843241524416953e-06</v>
+        <v>7.676190580241382e-05</v>
       </c>
       <c r="CT16" t="n">
-        <v>6.849971214251127e-06</v>
+        <v>4.987229476682842e-05</v>
       </c>
       <c r="CU16" t="n">
-        <v>1.581672404427081e-05</v>
+        <v>4.830526086152531e-05</v>
       </c>
       <c r="CV16" t="n">
-        <v>2.883847446355503e-05</v>
+        <v>1.927273842738941e-05</v>
       </c>
       <c r="CW16" t="n">
-        <v>3.247566928621382e-05</v>
+        <v>7.349321822402999e-05</v>
       </c>
       <c r="CX16" t="n">
-        <v>4.058802005602047e-05</v>
+        <v>1.358524241368286e-05</v>
       </c>
       <c r="CY16" t="n">
-        <v>1.705183194644633e-07</v>
+        <v>3.125383955193684e-05</v>
       </c>
       <c r="CZ16" t="n">
-        <v>2.589701762190089e-05</v>
+        <v>2.281538218085188e-05</v>
       </c>
       <c r="DA16" t="n">
-        <v>1.675925705058035e-05</v>
+        <v>3.101386937487405e-06</v>
       </c>
       <c r="DB16" t="n">
-        <v>6.713519724144135e-06</v>
+        <v>2.803410097840242e-05</v>
       </c>
       <c r="DC16" t="n">
-        <v>3.164185727655422e-06</v>
+        <v>2.305348061781842e-05</v>
       </c>
       <c r="DD16" t="n">
-        <v>2.318849510629661e-06</v>
+        <v>2.246443909825757e-05</v>
       </c>
       <c r="DE16" t="n">
-        <v>6.115723408584017e-06</v>
+        <v>3.806266977335326e-05</v>
       </c>
       <c r="DF16" t="n">
-        <v>7.345525955315679e-05</v>
+        <v>6.482492608483881e-05</v>
       </c>
       <c r="DG16" t="n">
-        <v>2.649495399964508e-05</v>
+        <v>2.800751462928019e-05</v>
       </c>
       <c r="DH16" t="n">
-        <v>1.652804348850623e-05</v>
+        <v>5.081366543890908e-05</v>
       </c>
       <c r="DI16" t="n">
-        <v>3.111862679361366e-05</v>
+        <v>0.0001389850658597425</v>
       </c>
       <c r="DJ16" t="n">
-        <v>9.273389878217131e-07</v>
+        <v>0.0001871412241598591</v>
       </c>
       <c r="DK16" t="n">
-        <v>9.184981536236592e-06</v>
+        <v>2.279365071444772e-05</v>
       </c>
       <c r="DL16" t="n">
-        <v>1.31014066937496e-05</v>
+        <v>3.193409065715969e-05</v>
       </c>
       <c r="DM16" t="n">
-        <v>8.35454193293117e-06</v>
+        <v>0.0001138390289270319</v>
       </c>
       <c r="DN16" t="n">
-        <v>3.222640543754096e-06</v>
+        <v>2.644493179104757e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>4.789746890310198e-05</v>
+        <v>2.018881787080318e-05</v>
       </c>
       <c r="DP16" t="n">
-        <v>1.508430432295427e-05</v>
+        <v>4.188345337752253e-05</v>
       </c>
       <c r="DQ16" t="n">
-        <v>5.936749403190333e-07</v>
+        <v>4.189364335616119e-05</v>
       </c>
       <c r="DR16" t="n">
-        <v>9.943657460098621e-06</v>
+        <v>2.828208198479842e-05</v>
       </c>
       <c r="DS16" t="n">
-        <v>1.109653203457128e-05</v>
+        <v>1.60346880875295e-05</v>
       </c>
       <c r="DT16" t="n">
-        <v>1.889672603283543e-06</v>
+        <v>7.034729060251266e-05</v>
       </c>
       <c r="DU16" t="n">
-        <v>1.513983079348691e-05</v>
+        <v>3.411257421248592e-05</v>
       </c>
       <c r="DV16" t="n">
-        <v>5.64618494536262e-06</v>
+        <v>4.169124804320745e-05</v>
       </c>
       <c r="DW16" t="n">
-        <v>1.788484223652631e-05</v>
+        <v>1.016414807963884e-05</v>
       </c>
       <c r="DX16" t="n">
-        <v>1.230427915288601e-05</v>
+        <v>6.174589361762628e-05</v>
       </c>
       <c r="DY16" t="n">
-        <v>2.259506572954706e-07</v>
+        <v>3.384593583177775e-06</v>
       </c>
       <c r="DZ16" t="n">
-        <v>3.445808033575304e-06</v>
+        <v>6.209306593518704e-05</v>
       </c>
       <c r="EA16" t="n">
-        <v>1.795207026589196e-05</v>
+        <v>5.170873555471189e-05</v>
       </c>
       <c r="EB16" t="n">
-        <v>7.904513040557504e-06</v>
+        <v>2.430867971270345e-05</v>
       </c>
       <c r="EC16" t="n">
-        <v>2.443724497425137e-06</v>
+        <v>1.27323619381059e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>1.29865493363468e-05</v>
+        <v>4.549039294943213e-05</v>
       </c>
       <c r="EE16" t="n">
-        <v>5.901169060962275e-06</v>
+        <v>0.0001002780991257168</v>
       </c>
       <c r="EF16" t="n">
-        <v>4.573947080643848e-05</v>
+        <v>6.047507849871181e-05</v>
       </c>
       <c r="EG16" t="n">
-        <v>2.6650557629182e-05</v>
+        <v>0.0001104419061448425</v>
       </c>
       <c r="EH16" t="n">
-        <v>3.36279917974025e-05</v>
+        <v>6.423737886507297e-06</v>
       </c>
       <c r="EI16" t="n">
-        <v>1.085495750885457e-05</v>
+        <v>9.234645403921604e-08</v>
       </c>
       <c r="EJ16" t="n">
-        <v>7.002208803896792e-06</v>
+        <v>5.315057023835834e-06</v>
       </c>
       <c r="EK16" t="n">
-        <v>4.199358954792842e-05</v>
+        <v>5.623965989798307e-05</v>
       </c>
       <c r="EL16" t="n">
-        <v>4.060255832882831e-06</v>
+        <v>4.290399738238193e-05</v>
       </c>
       <c r="EM16" t="n">
-        <v>2.781053444778081e-05</v>
+        <v>2.263922215206549e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>1.722758497635368e-05</v>
+        <v>1.14161830424564e-05</v>
       </c>
       <c r="EO16" t="n">
-        <v>1.095209336199332e-05</v>
+        <v>2.445992868160829e-05</v>
       </c>
       <c r="EP16" t="n">
-        <v>1.77675174199976e-05</v>
+        <v>2.717870665946975e-05</v>
       </c>
       <c r="EQ16" t="n">
-        <v>8.544444426661357e-06</v>
+        <v>1.883559161797166e-05</v>
       </c>
       <c r="ER16" t="n">
-        <v>1.249854904017411e-07</v>
+        <v>4.53014399681706e-05</v>
       </c>
       <c r="ES16" t="n">
-        <v>2.018346640397795e-05</v>
+        <v>4.921059735352173e-05</v>
       </c>
       <c r="ET16" t="n">
-        <v>1.771781171555631e-05</v>
+        <v>8.794484529062174e-06</v>
       </c>
       <c r="EU16" t="n">
-        <v>1.802232873160392e-05</v>
+        <v>8.867942960932851e-05</v>
       </c>
       <c r="EV16" t="n">
-        <v>1.240798155777156e-05</v>
+        <v>6.772939377697185e-05</v>
       </c>
       <c r="EW16" t="n">
-        <v>1.853811227192637e-05</v>
+        <v>2.123968079104088e-05</v>
       </c>
       <c r="EX16" t="n">
-        <v>2.957688411697745e-05</v>
+        <v>2.517086613806896e-05</v>
       </c>
       <c r="EY16" t="n">
-        <v>2.93629909720039e-05</v>
+        <v>7.643481512786821e-05</v>
       </c>
       <c r="EZ16" t="n">
-        <v>3.97259573219344e-05</v>
+        <v>8.976453500508796e-06</v>
       </c>
       <c r="FA16" t="n">
-        <v>1.843224708864e-06</v>
+        <v>8.681041435920633e-06</v>
       </c>
       <c r="FB16" t="n">
-        <v>1.86962333827978e-05</v>
+        <v>1.219377736561e-05</v>
       </c>
       <c r="FC16" t="n">
-        <v>4.922744665236678e-06</v>
+        <v>4.172457920503803e-06</v>
       </c>
       <c r="FD16" t="n">
-        <v>7.454984825017164e-06</v>
+        <v>4.493529195315205e-05</v>
       </c>
       <c r="FE16" t="n">
-        <v>9.063742254511453e-06</v>
+        <v>1.91099079529522e-05</v>
       </c>
       <c r="FF16" t="n">
-        <v>6.638332706643268e-06</v>
+        <v>3.675408515846357e-05</v>
       </c>
       <c r="FG16" t="n">
-        <v>1.791557951946743e-05</v>
+        <v>2.429770756862126e-05</v>
       </c>
       <c r="FH16" t="n">
-        <v>4.278113920008764e-06</v>
+        <v>2.262846101075411e-05</v>
       </c>
       <c r="FI16" t="n">
-        <v>3.559668402886018e-05</v>
+        <v>2.687172309379093e-05</v>
       </c>
       <c r="FJ16" t="n">
-        <v>2.756407047854736e-05</v>
+        <v>6.81323726894334e-05</v>
       </c>
       <c r="FK16" t="n">
-        <v>4.32334218203323e-06</v>
+        <v>2.893361306632869e-05</v>
       </c>
       <c r="FL16" t="n">
-        <v>2.139196112693753e-05</v>
+        <v>1.242128928424791e-05</v>
       </c>
       <c r="FM16" t="n">
-        <v>3.430731567277689e-06</v>
+        <v>3.784141517826356e-05</v>
       </c>
       <c r="FN16" t="n">
-        <v>4.911645646643592e-06</v>
+        <v>1.553362562844995e-05</v>
       </c>
       <c r="FO16" t="n">
-        <v>4.680686743085971e-06</v>
+        <v>3.699460285133682e-05</v>
       </c>
       <c r="FP16" t="n">
-        <v>1.506444368715165e-05</v>
+        <v>6.940004823263735e-05</v>
       </c>
       <c r="FQ16" t="n">
-        <v>9.05071065062657e-05</v>
+        <v>2.840687193383928e-05</v>
       </c>
       <c r="FR16" t="n">
-        <v>1.833240094128996e-05</v>
+        <v>4.778662696480751e-05</v>
       </c>
       <c r="FS16" t="n">
-        <v>1.646850432734936e-05</v>
+        <v>7.616729271830991e-05</v>
       </c>
       <c r="FT16" t="n">
-        <v>1.259535019926261e-05</v>
+        <v>1.764171611284837e-05</v>
       </c>
       <c r="FU16" t="n">
-        <v>1.906370380311273e-05</v>
+        <v>6.488937651738524e-05</v>
       </c>
       <c r="FV16" t="n">
-        <v>1.23629615700338e-06</v>
+        <v>1.515650728833862e-05</v>
       </c>
       <c r="FW16" t="n">
-        <v>1.877564045571489e-06</v>
+        <v>9.527648217044771e-06</v>
       </c>
       <c r="FX16" t="n">
-        <v>3.303574885649141e-06</v>
+        <v>2.617268728499766e-05</v>
       </c>
       <c r="FY16" t="n">
-        <v>1.942215749295428e-05</v>
+        <v>7.362080941675231e-05</v>
       </c>
       <c r="FZ16" t="n">
-        <v>1.135921047534794e-05</v>
+        <v>2.709897307795472e-05</v>
       </c>
       <c r="GA16" t="n">
-        <v>9.046016202773899e-07</v>
+        <v>1.115941995522007e-05</v>
       </c>
       <c r="GB16" t="n">
-        <v>7.846129847166594e-06</v>
+        <v>7.540901151514845e-06</v>
       </c>
       <c r="GC16" t="n">
-        <v>2.302191751368809e-05</v>
+        <v>1.209079346153885e-05</v>
       </c>
       <c r="GD16" t="n">
-        <v>2.07782013603719e-05</v>
+        <v>4.344449553173035e-05</v>
       </c>
       <c r="GE16" t="n">
-        <v>4.030340278404765e-06</v>
+        <v>9.199593478115276e-07</v>
       </c>
       <c r="GF16" t="n">
-        <v>3.003410256496863e-06</v>
+        <v>4.217899913783185e-05</v>
       </c>
       <c r="GG16" t="n">
-        <v>8.319204425788485e-06</v>
+        <v>2.132562076440081e-05</v>
       </c>
     </row>
   </sheetData>
